--- a/reformatted_data/cell_type-recreated_template.xlsx
+++ b/reformatted_data/cell_type-recreated_template.xlsx
@@ -161,10 +161,10 @@
     <t>peripheral blood mononuclear cell</t>
   </si>
   <si>
-    <t>serum</t>
-  </si>
-  <si>
-    <t>body skin</t>
+    <t>blood serum</t>
+  </si>
+  <si>
+    <t>skin of body</t>
   </si>
   <si>
     <t>label</t>
@@ -22930,7 +22930,7 @@
         <v>411</v>
       </c>
       <c r="P172" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q172" t="s">
         <v>451</v>
@@ -23043,7 +23043,7 @@
         <v>411</v>
       </c>
       <c r="P173" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q173" t="s">
         <v>451</v>
@@ -23156,7 +23156,7 @@
         <v>411</v>
       </c>
       <c r="P174" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q174" t="s">
         <v>451</v>
@@ -23269,7 +23269,7 @@
         <v>411</v>
       </c>
       <c r="P175" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q175" t="s">
         <v>451</v>
@@ -23382,7 +23382,7 @@
         <v>411</v>
       </c>
       <c r="P176" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q176" t="s">
         <v>451</v>
@@ -23495,7 +23495,7 @@
         <v>411</v>
       </c>
       <c r="P177" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q177" t="s">
         <v>451</v>
@@ -23608,7 +23608,7 @@
         <v>411</v>
       </c>
       <c r="P178" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q178" t="s">
         <v>451</v>
@@ -23721,7 +23721,7 @@
         <v>411</v>
       </c>
       <c r="P179" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q179" t="s">
         <v>451</v>
@@ -23834,7 +23834,7 @@
         <v>411</v>
       </c>
       <c r="P180" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q180" t="s">
         <v>451</v>
@@ -23947,7 +23947,7 @@
         <v>411</v>
       </c>
       <c r="P181" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q181" t="s">
         <v>451</v>
@@ -24060,7 +24060,7 @@
         <v>411</v>
       </c>
       <c r="P182" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q182" t="s">
         <v>451</v>
@@ -24173,7 +24173,7 @@
         <v>411</v>
       </c>
       <c r="P183" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q183" t="s">
         <v>451</v>
@@ -24286,7 +24286,7 @@
         <v>411</v>
       </c>
       <c r="P184" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q184" t="s">
         <v>451</v>
@@ -24399,7 +24399,7 @@
         <v>411</v>
       </c>
       <c r="P185" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q185" t="s">
         <v>451</v>
@@ -24512,7 +24512,7 @@
         <v>411</v>
       </c>
       <c r="P186" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q186" t="s">
         <v>451</v>
@@ -24625,7 +24625,7 @@
         <v>411</v>
       </c>
       <c r="P187" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q187" t="s">
         <v>451</v>
@@ -24738,7 +24738,7 @@
         <v>411</v>
       </c>
       <c r="P188" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q188" t="s">
         <v>451</v>
@@ -24851,7 +24851,7 @@
         <v>411</v>
       </c>
       <c r="P189" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q189" t="s">
         <v>451</v>
@@ -24964,7 +24964,7 @@
         <v>411</v>
       </c>
       <c r="P190" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q190" t="s">
         <v>451</v>
@@ -25077,7 +25077,7 @@
         <v>411</v>
       </c>
       <c r="P191" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q191" t="s">
         <v>450</v>
@@ -25190,7 +25190,7 @@
         <v>411</v>
       </c>
       <c r="P192" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="Q192" t="s">
         <v>450</v>

--- a/reformatted_data/cell_type-recreated_template.xlsx
+++ b/reformatted_data/cell_type-recreated_template.xlsx
@@ -668,7 +668,7 @@
     <t>plasmacytoid dendritic cell; natural killer cell &amp; CD14-, CD19-, CD3-, CD107a+, K562 cells; natural killer cell &amp; CD14-, CD19-, CD3-, IFNG+, K562 cells; natural killer cell &amp; CD14-, CD19-, CD3-, TNF-a+, K562 cells</t>
   </si>
   <si>
-    <t>natural killer cell &amp; CD14-, CD20-, CD3-; NKGA2-positive natural killer cell &amp; CD14-, CD20-, CD3-; natural killer cell &amp; CD14-, CD20-, CD3-, NKG2-A/B-activating NK receptor+</t>
+    <t>natural killer cell &amp; CD14-, CD20-, CD3-; natural killer cell &amp; CD14-, CD20-, CD3-, NKGA2+; natural killer cell &amp; CD14-, CD20-, CD3-, NKG2-A/B-activating NK receptor+</t>
   </si>
   <si>
     <t>B cell &amp; CD3-, CD19+, CD20+, CD27+, IgD-, IgM-; CD4-positive, alpha-beta T cell &amp; CD3+, CD28+; CD4-positive, alpha-beta T cell &amp; CD3+, pKI-67+; CD8-positive, alpha-beta T cell &amp; CD3+, CD28+; CD8-positive, alpha-beta T cell &amp; CD3+, pKI-67+</t>

--- a/reformatted_data/cell_type-recreated_template.xlsx
+++ b/reformatted_data/cell_type-recreated_template.xlsx
@@ -1220,7 +1220,7 @@
     <t>human immunodeficiency virus 1</t>
   </si>
   <si>
-    <t>mycobacterium bovis BCG</t>
+    <t>mycobacterium tuberculosis variant bovis BCG</t>
   </si>
   <si>
     <t>human alphaherpesvirus 3</t>

--- a/reformatted_data/cell_type-recreated_template.xlsx
+++ b/reformatted_data/cell_type-recreated_template.xlsx
@@ -1250,9 +1250,6 @@
     <t>influenza A virus (A/California/7/2009(H1N1))</t>
   </si>
   <si>
-    <t>influenza A virus (H1N1)</t>
-  </si>
-  <si>
     <t>vaccine year</t>
   </si>
   <si>
@@ -1268,6 +1265,9 @@
     <t>2010</t>
   </si>
   <si>
+    <t>2009, pan</t>
+  </si>
+  <si>
     <t>2007, 2008, 2009</t>
   </si>
   <si>
@@ -1277,6 +1277,9 @@
     <t>2009mv</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>exposure material (name)</t>
   </si>
   <si>
@@ -1365,9 +1368,6 @@
   </si>
   <si>
     <t>Pandemrix</t>
-  </si>
-  <si>
-    <t>Pandemrix (A/California/7/09 (H1N1))</t>
   </si>
   <si>
     <t>vaccine</t>
@@ -4285,10 +4285,10 @@
         <v>394</v>
       </c>
       <c r="P7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="R7" t="s">
         <v>453</v>
@@ -4401,7 +4401,7 @@
         <v>43</v>
       </c>
       <c r="Q8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="R8" t="s">
         <v>454</v>
@@ -4514,7 +4514,7 @@
         <v>43</v>
       </c>
       <c r="Q9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R9" t="s">
         <v>455</v>
@@ -4627,7 +4627,7 @@
         <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R10" t="s">
         <v>455</v>
@@ -4740,7 +4740,7 @@
         <v>43</v>
       </c>
       <c r="Q11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="R11" t="s">
         <v>456</v>
@@ -4853,7 +4853,7 @@
         <v>43</v>
       </c>
       <c r="Q12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R12" t="s">
         <v>455</v>
@@ -4963,10 +4963,10 @@
         <v>396</v>
       </c>
       <c r="P13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R13" t="s">
         <v>457</v>
@@ -5076,10 +5076,10 @@
         <v>396</v>
       </c>
       <c r="P14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R14" t="s">
         <v>457</v>
@@ -5189,10 +5189,10 @@
         <v>396</v>
       </c>
       <c r="P15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R15" t="s">
         <v>457</v>
@@ -5302,10 +5302,10 @@
         <v>396</v>
       </c>
       <c r="P16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q16" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R16" t="s">
         <v>457</v>
@@ -5415,10 +5415,10 @@
         <v>396</v>
       </c>
       <c r="P17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q17" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R17" t="s">
         <v>457</v>
@@ -5528,10 +5528,10 @@
         <v>396</v>
       </c>
       <c r="P18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q18" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R18" t="s">
         <v>457</v>
@@ -5644,7 +5644,7 @@
         <v>43</v>
       </c>
       <c r="Q19" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="R19" t="s">
         <v>458</v>
@@ -5757,7 +5757,7 @@
         <v>43</v>
       </c>
       <c r="Q20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="R20" t="s">
         <v>458</v>
@@ -5867,10 +5867,10 @@
         <v>398</v>
       </c>
       <c r="P21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q21" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R21" t="s">
         <v>457</v>
@@ -5983,7 +5983,7 @@
         <v>43</v>
       </c>
       <c r="Q22" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R22" t="s">
         <v>459</v>
@@ -6096,7 +6096,7 @@
         <v>43</v>
       </c>
       <c r="Q23" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R23" t="s">
         <v>459</v>
@@ -6209,7 +6209,7 @@
         <v>43</v>
       </c>
       <c r="Q24" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R24" t="s">
         <v>459</v>
@@ -6322,7 +6322,7 @@
         <v>43</v>
       </c>
       <c r="Q25" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R25" t="s">
         <v>459</v>
@@ -6432,10 +6432,10 @@
         <v>400</v>
       </c>
       <c r="P26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q26" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="R26" t="s">
         <v>460</v>
@@ -6545,10 +6545,10 @@
         <v>400</v>
       </c>
       <c r="P27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q27" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="R27" t="s">
         <v>461</v>
@@ -6658,10 +6658,10 @@
         <v>400</v>
       </c>
       <c r="P28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q28" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="R28" t="s">
         <v>461</v>
@@ -6774,7 +6774,7 @@
         <v>43</v>
       </c>
       <c r="Q29" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="R29" t="s">
         <v>462</v>
@@ -6798,7 +6798,7 @@
         <v>587</v>
       </c>
       <c r="Y29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Z29" t="s">
         <v>633</v>
@@ -6887,7 +6887,7 @@
         <v>43</v>
       </c>
       <c r="Q30" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="R30" t="s">
         <v>462</v>
@@ -6911,7 +6911,7 @@
         <v>587</v>
       </c>
       <c r="Y30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Z30" t="s">
         <v>633</v>
@@ -7000,7 +7000,7 @@
         <v>43</v>
       </c>
       <c r="Q31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="R31" t="s">
         <v>462</v>
@@ -7024,7 +7024,7 @@
         <v>587</v>
       </c>
       <c r="Y31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Z31" t="s">
         <v>633</v>
@@ -7113,7 +7113,7 @@
         <v>43</v>
       </c>
       <c r="Q32" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="R32" t="s">
         <v>462</v>
@@ -7137,7 +7137,7 @@
         <v>587</v>
       </c>
       <c r="Y32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Z32" t="s">
         <v>633</v>
@@ -7226,7 +7226,7 @@
         <v>43</v>
       </c>
       <c r="Q33" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="R33" t="s">
         <v>463</v>
@@ -7339,7 +7339,7 @@
         <v>43</v>
       </c>
       <c r="Q34" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R34" t="s">
         <v>464</v>
@@ -7452,7 +7452,7 @@
         <v>43</v>
       </c>
       <c r="Q35" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R35" t="s">
         <v>465</v>
@@ -7565,7 +7565,7 @@
         <v>43</v>
       </c>
       <c r="Q36" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R36" t="s">
         <v>465</v>
@@ -7678,7 +7678,7 @@
         <v>43</v>
       </c>
       <c r="Q37" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R37" t="s">
         <v>465</v>
@@ -7791,7 +7791,7 @@
         <v>43</v>
       </c>
       <c r="Q38" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R38" t="s">
         <v>465</v>
@@ -7904,7 +7904,7 @@
         <v>43</v>
       </c>
       <c r="Q39" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R39" t="s">
         <v>465</v>
@@ -8017,7 +8017,7 @@
         <v>43</v>
       </c>
       <c r="Q40" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R40" t="s">
         <v>465</v>
@@ -8130,7 +8130,7 @@
         <v>43</v>
       </c>
       <c r="Q41" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R41" t="s">
         <v>466</v>
@@ -8243,7 +8243,7 @@
         <v>43</v>
       </c>
       <c r="Q42" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="R42" t="s">
         <v>467</v>
@@ -8356,7 +8356,7 @@
         <v>43</v>
       </c>
       <c r="Q43" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="R43" t="s">
         <v>467</v>
@@ -8469,7 +8469,7 @@
         <v>43</v>
       </c>
       <c r="Q44" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="R44" t="s">
         <v>467</v>
@@ -8582,7 +8582,7 @@
         <v>43</v>
       </c>
       <c r="Q45" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="R45" t="s">
         <v>468</v>
@@ -8695,7 +8695,7 @@
         <v>43</v>
       </c>
       <c r="Q46" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="R46" t="s">
         <v>469</v>
@@ -8808,7 +8808,7 @@
         <v>43</v>
       </c>
       <c r="Q47" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="R47" t="s">
         <v>469</v>
@@ -8918,10 +8918,10 @@
         <v>406</v>
       </c>
       <c r="P48" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q48" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="R48" t="s">
         <v>470</v>
@@ -9031,10 +9031,10 @@
         <v>407</v>
       </c>
       <c r="P49" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q49" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="R49" t="s">
         <v>471</v>
@@ -9144,10 +9144,10 @@
         <v>407</v>
       </c>
       <c r="P50" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q50" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="R50" t="s">
         <v>471</v>
@@ -9257,10 +9257,10 @@
         <v>407</v>
       </c>
       <c r="P51" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q51" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="R51" t="s">
         <v>471</v>
@@ -9370,10 +9370,10 @@
         <v>407</v>
       </c>
       <c r="P52" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q52" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="R52" t="s">
         <v>471</v>
@@ -9483,10 +9483,10 @@
         <v>407</v>
       </c>
       <c r="P53" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q53" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="R53" t="s">
         <v>471</v>
@@ -9596,10 +9596,10 @@
         <v>407</v>
       </c>
       <c r="P54" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q54" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="R54" t="s">
         <v>471</v>
@@ -9709,10 +9709,10 @@
         <v>407</v>
       </c>
       <c r="P55" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q55" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="R55" t="s">
         <v>471</v>
@@ -9825,7 +9825,7 @@
         <v>418</v>
       </c>
       <c r="Q56" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="R56" t="s">
         <v>472</v>
@@ -9938,7 +9938,7 @@
         <v>418</v>
       </c>
       <c r="Q57" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="R57" t="s">
         <v>472</v>
@@ -10051,7 +10051,7 @@
         <v>418</v>
       </c>
       <c r="Q58" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="R58" t="s">
         <v>472</v>
@@ -10164,7 +10164,7 @@
         <v>418</v>
       </c>
       <c r="Q59" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="R59" t="s">
         <v>472</v>
@@ -10274,10 +10274,10 @@
         <v>396</v>
       </c>
       <c r="P60" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q60" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="R60" t="s">
         <v>473</v>
@@ -10387,10 +10387,10 @@
         <v>406</v>
       </c>
       <c r="P61" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q61" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R61" t="s">
         <v>457</v>
@@ -10500,10 +10500,10 @@
         <v>406</v>
       </c>
       <c r="P62" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q62" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R62" t="s">
         <v>457</v>
@@ -10613,10 +10613,10 @@
         <v>406</v>
       </c>
       <c r="P63" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q63" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R63" t="s">
         <v>457</v>
@@ -10726,10 +10726,10 @@
         <v>406</v>
       </c>
       <c r="P64" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q64" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R64" t="s">
         <v>457</v>
@@ -10839,10 +10839,10 @@
         <v>406</v>
       </c>
       <c r="P65" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q65" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R65" t="s">
         <v>457</v>
@@ -10952,10 +10952,10 @@
         <v>406</v>
       </c>
       <c r="P66" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q66" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="R66" t="s">
         <v>473</v>
@@ -11065,10 +11065,10 @@
         <v>406</v>
       </c>
       <c r="P67" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q67" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R67" t="s">
         <v>474</v>
@@ -11178,10 +11178,10 @@
         <v>406</v>
       </c>
       <c r="P68" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q68" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R68" t="s">
         <v>474</v>
@@ -11291,10 +11291,10 @@
         <v>406</v>
       </c>
       <c r="P69" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q69" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R69" t="s">
         <v>474</v>
@@ -11404,10 +11404,10 @@
         <v>406</v>
       </c>
       <c r="P70" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q70" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R70" t="s">
         <v>474</v>
@@ -11517,10 +11517,10 @@
         <v>406</v>
       </c>
       <c r="P71" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q71" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R71" t="s">
         <v>474</v>
@@ -11630,10 +11630,10 @@
         <v>406</v>
       </c>
       <c r="P72" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q72" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R72" t="s">
         <v>474</v>
@@ -11743,10 +11743,10 @@
         <v>406</v>
       </c>
       <c r="P73" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q73" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R73" t="s">
         <v>474</v>
@@ -11856,10 +11856,10 @@
         <v>406</v>
       </c>
       <c r="P74" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q74" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R74" t="s">
         <v>474</v>
@@ -11969,10 +11969,10 @@
         <v>406</v>
       </c>
       <c r="P75" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q75" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R75" t="s">
         <v>474</v>
@@ -12082,10 +12082,10 @@
         <v>406</v>
       </c>
       <c r="P76" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q76" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R76" t="s">
         <v>474</v>
@@ -12195,10 +12195,10 @@
         <v>406</v>
       </c>
       <c r="P77" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q77" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R77" t="s">
         <v>474</v>
@@ -12308,10 +12308,10 @@
         <v>406</v>
       </c>
       <c r="P78" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q78" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R78" t="s">
         <v>474</v>
@@ -12421,10 +12421,10 @@
         <v>406</v>
       </c>
       <c r="P79" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q79" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R79" t="s">
         <v>474</v>
@@ -12534,10 +12534,10 @@
         <v>406</v>
       </c>
       <c r="P80" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q80" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R80" t="s">
         <v>474</v>
@@ -12647,10 +12647,10 @@
         <v>406</v>
       </c>
       <c r="P81" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q81" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R81" t="s">
         <v>474</v>
@@ -12760,10 +12760,10 @@
         <v>406</v>
       </c>
       <c r="P82" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q82" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R82" t="s">
         <v>474</v>
@@ -12873,10 +12873,10 @@
         <v>406</v>
       </c>
       <c r="P83" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q83" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R83" t="s">
         <v>474</v>
@@ -12986,10 +12986,10 @@
         <v>406</v>
       </c>
       <c r="P84" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q84" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R84" t="s">
         <v>474</v>
@@ -13099,10 +13099,10 @@
         <v>406</v>
       </c>
       <c r="P85" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q85" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R85" t="s">
         <v>474</v>
@@ -13212,10 +13212,10 @@
         <v>406</v>
       </c>
       <c r="P86" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q86" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R86" t="s">
         <v>474</v>
@@ -13325,10 +13325,10 @@
         <v>406</v>
       </c>
       <c r="P87" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q87" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R87" t="s">
         <v>474</v>
@@ -13438,10 +13438,10 @@
         <v>406</v>
       </c>
       <c r="P88" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q88" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R88" t="s">
         <v>474</v>
@@ -13551,10 +13551,10 @@
         <v>406</v>
       </c>
       <c r="P89" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q89" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R89" t="s">
         <v>474</v>
@@ -13664,10 +13664,10 @@
         <v>406</v>
       </c>
       <c r="P90" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q90" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R90" t="s">
         <v>474</v>
@@ -13777,10 +13777,10 @@
         <v>406</v>
       </c>
       <c r="P91" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q91" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R91" t="s">
         <v>474</v>
@@ -13890,10 +13890,10 @@
         <v>406</v>
       </c>
       <c r="P92" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q92" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R92" t="s">
         <v>474</v>
@@ -14003,10 +14003,10 @@
         <v>406</v>
       </c>
       <c r="P93" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q93" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R93" t="s">
         <v>474</v>
@@ -14116,10 +14116,10 @@
         <v>406</v>
       </c>
       <c r="P94" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q94" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R94" t="s">
         <v>474</v>
@@ -14229,10 +14229,10 @@
         <v>406</v>
       </c>
       <c r="P95" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q95" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R95" t="s">
         <v>474</v>
@@ -14345,7 +14345,7 @@
         <v>43</v>
       </c>
       <c r="Q96" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R96" t="s">
         <v>465</v>
@@ -14458,7 +14458,7 @@
         <v>43</v>
       </c>
       <c r="Q97" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R97" t="s">
         <v>465</v>
@@ -14571,7 +14571,7 @@
         <v>43</v>
       </c>
       <c r="Q98" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R98" t="s">
         <v>465</v>
@@ -14684,7 +14684,7 @@
         <v>43</v>
       </c>
       <c r="Q99" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R99" t="s">
         <v>465</v>
@@ -14797,7 +14797,7 @@
         <v>43</v>
       </c>
       <c r="Q100" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R100" t="s">
         <v>465</v>
@@ -14910,7 +14910,7 @@
         <v>43</v>
       </c>
       <c r="Q101" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R101" t="s">
         <v>475</v>
@@ -15023,7 +15023,7 @@
         <v>43</v>
       </c>
       <c r="Q102" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R102" t="s">
         <v>475</v>
@@ -15136,7 +15136,7 @@
         <v>43</v>
       </c>
       <c r="Q103" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R103" t="s">
         <v>476</v>
@@ -15249,7 +15249,7 @@
         <v>43</v>
       </c>
       <c r="Q104" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R104" t="s">
         <v>476</v>
@@ -15362,7 +15362,7 @@
         <v>43</v>
       </c>
       <c r="Q105" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R105" t="s">
         <v>476</v>
@@ -15475,7 +15475,7 @@
         <v>43</v>
       </c>
       <c r="Q106" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R106" t="s">
         <v>476</v>
@@ -15588,7 +15588,7 @@
         <v>43</v>
       </c>
       <c r="Q107" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R107" t="s">
         <v>476</v>
@@ -15701,7 +15701,7 @@
         <v>43</v>
       </c>
       <c r="Q108" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R108" t="s">
         <v>476</v>
@@ -15814,7 +15814,7 @@
         <v>43</v>
       </c>
       <c r="Q109" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R109" t="s">
         <v>476</v>
@@ -15927,7 +15927,7 @@
         <v>43</v>
       </c>
       <c r="Q110" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R110" t="s">
         <v>476</v>
@@ -16040,7 +16040,7 @@
         <v>43</v>
       </c>
       <c r="Q111" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R111" t="s">
         <v>476</v>
@@ -16153,7 +16153,7 @@
         <v>43</v>
       </c>
       <c r="Q112" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R112" t="s">
         <v>476</v>
@@ -16266,7 +16266,7 @@
         <v>43</v>
       </c>
       <c r="Q113" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R113" t="s">
         <v>476</v>
@@ -16379,7 +16379,7 @@
         <v>43</v>
       </c>
       <c r="Q114" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R114" t="s">
         <v>476</v>
@@ -16492,7 +16492,7 @@
         <v>43</v>
       </c>
       <c r="Q115" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R115" t="s">
         <v>476</v>
@@ -16605,7 +16605,7 @@
         <v>43</v>
       </c>
       <c r="Q116" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R116" t="s">
         <v>476</v>
@@ -16718,7 +16718,7 @@
         <v>43</v>
       </c>
       <c r="Q117" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R117" t="s">
         <v>476</v>
@@ -16831,7 +16831,7 @@
         <v>43</v>
       </c>
       <c r="Q118" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R118" t="s">
         <v>476</v>
@@ -16944,7 +16944,7 @@
         <v>43</v>
       </c>
       <c r="Q119" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R119" t="s">
         <v>476</v>
@@ -17057,7 +17057,7 @@
         <v>43</v>
       </c>
       <c r="Q120" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R120" t="s">
         <v>476</v>
@@ -17167,10 +17167,10 @@
         <v>400</v>
       </c>
       <c r="P121" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q121" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R121" t="s">
         <v>477</v>
@@ -17280,10 +17280,10 @@
         <v>400</v>
       </c>
       <c r="P122" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q122" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R122" t="s">
         <v>477</v>
@@ -17396,7 +17396,7 @@
         <v>43</v>
       </c>
       <c r="Q123" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R123" t="s">
         <v>476</v>
@@ -17420,7 +17420,7 @@
         <v>605</v>
       </c>
       <c r="Y123" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Z123" t="s">
         <v>679</v>
@@ -17509,7 +17509,7 @@
         <v>43</v>
       </c>
       <c r="Q124" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R124" t="s">
         <v>476</v>
@@ -17533,7 +17533,7 @@
         <v>605</v>
       </c>
       <c r="Y124" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Z124" t="s">
         <v>679</v>
@@ -17622,7 +17622,7 @@
         <v>43</v>
       </c>
       <c r="Q125" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R125" t="s">
         <v>476</v>
@@ -17646,7 +17646,7 @@
         <v>605</v>
       </c>
       <c r="Y125" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Z125" t="s">
         <v>679</v>
@@ -17735,7 +17735,7 @@
         <v>43</v>
       </c>
       <c r="Q126" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R126" t="s">
         <v>476</v>
@@ -17759,7 +17759,7 @@
         <v>605</v>
       </c>
       <c r="Y126" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Z126" t="s">
         <v>679</v>
@@ -17848,7 +17848,7 @@
         <v>43</v>
       </c>
       <c r="Q127" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R127" t="s">
         <v>476</v>
@@ -17872,7 +17872,7 @@
         <v>605</v>
       </c>
       <c r="Y127" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Z127" t="s">
         <v>679</v>
@@ -17958,10 +17958,10 @@
         <v>406</v>
       </c>
       <c r="P128" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q128" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="R128" t="s">
         <v>470</v>
@@ -18071,10 +18071,10 @@
         <v>406</v>
       </c>
       <c r="P129" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q129" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="R129" t="s">
         <v>470</v>
@@ -18187,7 +18187,7 @@
         <v>43</v>
       </c>
       <c r="Q130" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R130" t="s">
         <v>465</v>
@@ -18300,7 +18300,7 @@
         <v>43</v>
       </c>
       <c r="Q131" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R131" t="s">
         <v>465</v>
@@ -18413,7 +18413,7 @@
         <v>43</v>
       </c>
       <c r="Q132" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R132" t="s">
         <v>465</v>
@@ -18526,7 +18526,7 @@
         <v>43</v>
       </c>
       <c r="Q133" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R133" t="s">
         <v>465</v>
@@ -18639,7 +18639,7 @@
         <v>43</v>
       </c>
       <c r="Q134" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R134" t="s">
         <v>465</v>
@@ -18752,7 +18752,7 @@
         <v>43</v>
       </c>
       <c r="Q135" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R135" t="s">
         <v>465</v>
@@ -18865,7 +18865,7 @@
         <v>43</v>
       </c>
       <c r="Q136" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R136" t="s">
         <v>465</v>
@@ -18978,7 +18978,7 @@
         <v>43</v>
       </c>
       <c r="Q137" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="R137" t="s">
         <v>478</v>
@@ -19091,7 +19091,7 @@
         <v>43</v>
       </c>
       <c r="Q138" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R138" t="s">
         <v>465</v>
@@ -19204,7 +19204,7 @@
         <v>43</v>
       </c>
       <c r="Q139" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R139" t="s">
         <v>465</v>
@@ -19317,7 +19317,7 @@
         <v>43</v>
       </c>
       <c r="Q140" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R140" t="s">
         <v>465</v>
@@ -19430,7 +19430,7 @@
         <v>43</v>
       </c>
       <c r="Q141" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R141" t="s">
         <v>465</v>
@@ -19543,7 +19543,7 @@
         <v>43</v>
       </c>
       <c r="Q142" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R142" t="s">
         <v>465</v>
@@ -19656,7 +19656,7 @@
         <v>43</v>
       </c>
       <c r="Q143" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R143" t="s">
         <v>465</v>
@@ -19769,7 +19769,7 @@
         <v>43</v>
       </c>
       <c r="Q144" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R144" t="s">
         <v>465</v>
@@ -19882,7 +19882,7 @@
         <v>43</v>
       </c>
       <c r="Q145" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R145" t="s">
         <v>465</v>
@@ -19995,7 +19995,7 @@
         <v>43</v>
       </c>
       <c r="Q146" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R146" t="s">
         <v>465</v>
@@ -20108,7 +20108,7 @@
         <v>43</v>
       </c>
       <c r="Q147" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R147" t="s">
         <v>465</v>
@@ -20221,7 +20221,7 @@
         <v>43</v>
       </c>
       <c r="Q148" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R148" t="s">
         <v>465</v>
@@ -20334,7 +20334,7 @@
         <v>43</v>
       </c>
       <c r="Q149" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R149" t="s">
         <v>465</v>
@@ -20447,7 +20447,7 @@
         <v>43</v>
       </c>
       <c r="Q150" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R150" t="s">
         <v>465</v>
@@ -20560,7 +20560,7 @@
         <v>43</v>
       </c>
       <c r="Q151" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R151" t="s">
         <v>465</v>
@@ -20673,7 +20673,7 @@
         <v>43</v>
       </c>
       <c r="Q152" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R152" t="s">
         <v>465</v>
@@ -20786,7 +20786,7 @@
         <v>43</v>
       </c>
       <c r="Q153" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R153" t="s">
         <v>465</v>
@@ -20899,7 +20899,7 @@
         <v>43</v>
       </c>
       <c r="Q154" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R154" t="s">
         <v>465</v>
@@ -21012,7 +21012,7 @@
         <v>43</v>
       </c>
       <c r="Q155" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R155" t="s">
         <v>465</v>
@@ -21125,7 +21125,7 @@
         <v>419</v>
       </c>
       <c r="Q156" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="R156" t="s">
         <v>479</v>
@@ -21238,7 +21238,7 @@
         <v>419</v>
       </c>
       <c r="Q157" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="R157" t="s">
         <v>479</v>
@@ -21351,7 +21351,7 @@
         <v>420</v>
       </c>
       <c r="Q158" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="R158" t="s">
         <v>480</v>
@@ -21464,7 +21464,7 @@
         <v>420</v>
       </c>
       <c r="Q159" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="R159" t="s">
         <v>480</v>
@@ -21577,7 +21577,7 @@
         <v>420</v>
       </c>
       <c r="Q160" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="R160" t="s">
         <v>480</v>
@@ -21690,7 +21690,7 @@
         <v>420</v>
       </c>
       <c r="Q161" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="R161" t="s">
         <v>480</v>
@@ -21803,7 +21803,7 @@
         <v>420</v>
       </c>
       <c r="Q162" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="R162" t="s">
         <v>480</v>
@@ -21916,7 +21916,7 @@
         <v>420</v>
       </c>
       <c r="Q163" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="R163" t="s">
         <v>480</v>
@@ -22026,10 +22026,10 @@
         <v>411</v>
       </c>
       <c r="P164" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q164" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="R164" t="s">
         <v>481</v>
@@ -22136,13 +22136,13 @@
         <v>390</v>
       </c>
       <c r="O165" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P165" t="s">
-        <v>43</v>
+        <v>420</v>
       </c>
       <c r="Q165" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="R165" t="s">
         <v>480</v>
@@ -22252,10 +22252,10 @@
         <v>411</v>
       </c>
       <c r="P166" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q166" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="R166" t="s">
         <v>481</v>
@@ -22365,10 +22365,10 @@
         <v>411</v>
       </c>
       <c r="P167" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q167" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="R167" t="s">
         <v>481</v>
@@ -22478,10 +22478,10 @@
         <v>411</v>
       </c>
       <c r="P168" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q168" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="R168" t="s">
         <v>481</v>
@@ -22591,10 +22591,10 @@
         <v>411</v>
       </c>
       <c r="P169" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q169" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="R169" t="s">
         <v>481</v>
@@ -22704,10 +22704,10 @@
         <v>411</v>
       </c>
       <c r="P170" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q170" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="R170" t="s">
         <v>481</v>
@@ -22817,10 +22817,10 @@
         <v>411</v>
       </c>
       <c r="P171" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q171" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="R171" t="s">
         <v>481</v>
@@ -22930,7 +22930,7 @@
         <v>411</v>
       </c>
       <c r="P172" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q172" t="s">
         <v>451</v>
@@ -23043,7 +23043,7 @@
         <v>411</v>
       </c>
       <c r="P173" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q173" t="s">
         <v>451</v>
@@ -23156,7 +23156,7 @@
         <v>411</v>
       </c>
       <c r="P174" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q174" t="s">
         <v>451</v>
@@ -23269,7 +23269,7 @@
         <v>411</v>
       </c>
       <c r="P175" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q175" t="s">
         <v>451</v>
@@ -23382,7 +23382,7 @@
         <v>411</v>
       </c>
       <c r="P176" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q176" t="s">
         <v>451</v>
@@ -23495,7 +23495,7 @@
         <v>411</v>
       </c>
       <c r="P177" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q177" t="s">
         <v>451</v>
@@ -23608,7 +23608,7 @@
         <v>411</v>
       </c>
       <c r="P178" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q178" t="s">
         <v>451</v>
@@ -23721,7 +23721,7 @@
         <v>411</v>
       </c>
       <c r="P179" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q179" t="s">
         <v>451</v>
@@ -23834,7 +23834,7 @@
         <v>411</v>
       </c>
       <c r="P180" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q180" t="s">
         <v>451</v>
@@ -23947,7 +23947,7 @@
         <v>411</v>
       </c>
       <c r="P181" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q181" t="s">
         <v>451</v>
@@ -24060,7 +24060,7 @@
         <v>411</v>
       </c>
       <c r="P182" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q182" t="s">
         <v>451</v>
@@ -24173,7 +24173,7 @@
         <v>411</v>
       </c>
       <c r="P183" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q183" t="s">
         <v>451</v>
@@ -24286,7 +24286,7 @@
         <v>411</v>
       </c>
       <c r="P184" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q184" t="s">
         <v>451</v>
@@ -24399,7 +24399,7 @@
         <v>411</v>
       </c>
       <c r="P185" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q185" t="s">
         <v>451</v>
@@ -24512,7 +24512,7 @@
         <v>411</v>
       </c>
       <c r="P186" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q186" t="s">
         <v>451</v>
@@ -24625,7 +24625,7 @@
         <v>411</v>
       </c>
       <c r="P187" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q187" t="s">
         <v>451</v>
@@ -24738,7 +24738,7 @@
         <v>411</v>
       </c>
       <c r="P188" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q188" t="s">
         <v>451</v>
@@ -24851,7 +24851,7 @@
         <v>411</v>
       </c>
       <c r="P189" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q189" t="s">
         <v>451</v>
@@ -24964,7 +24964,7 @@
         <v>411</v>
       </c>
       <c r="P190" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q190" t="s">
         <v>451</v>
@@ -25077,10 +25077,10 @@
         <v>411</v>
       </c>
       <c r="P191" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q191" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="R191" t="s">
         <v>481</v>
@@ -25190,10 +25190,10 @@
         <v>411</v>
       </c>
       <c r="P192" t="s">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="Q192" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="R192" t="s">
         <v>481</v>

--- a/reformatted_data/cell_type-recreated_template.xlsx
+++ b/reformatted_data/cell_type-recreated_template.xlsx
@@ -1484,7 +1484,7 @@
     <t>10d vs 0d</t>
   </si>
   <si>
-    <t xml:space="preserve">positively correlated with antibody response at 28d &amp; onward. </t>
+    <t>positively correlated with antibody response at 28d &amp; onward</t>
   </si>
   <si>
     <t>1d vs 0d</t>
@@ -1562,7 +1562,7 @@
     <t>high vs low inositol phosphate metabolism</t>
   </si>
   <si>
-    <t xml:space="preserve">group 2 (4mo: HBV &amp; OPV. 9mo: MV+DTP (i.m). 11mo: outstanding vaccines) vs groups 1 (4mo: 3rd dose of DTP, HBV, OPV. 9mo: 1 i.m dose of MV Edmonstron Zagreb strain. 11mo: outstanding vaccines) &amp; 3 (4mo: HBV &amp; OPV. 9mo: DTP. 11mo: outstanding vaccines) </t>
+    <t>group 2 (4mo: HBV &amp; OPV. 9mo: MV+DTP (i.m). 11mo: outstanding vaccines) vs groups 1 (4mo: 3rd dose of DTP, HBV, OPV. 9mo: 1 i.m dose of MV Edmonstron Zagreb strain. 11mo: outstanding vaccines) &amp; 3 (4mo: HBV &amp; OPV. 9mo: DTP. 11mo: outstanding vaccines)</t>
   </si>
   <si>
     <t>86d vs 0d</t>
@@ -1574,7 +1574,7 @@
     <t>S2 vs S1 as defined by hierarchical clustering of gene expression</t>
   </si>
   <si>
-    <t xml:space="preserve">S2 vs S1 as defined by hierarchical clustering of gene expression. Both clusters d21/d0, where each cluster was enriched for a different vaccination route and different levels of antibody response. </t>
+    <t>S2 vs S1 as defined by hierarchical clustering of gene expression. Both clusters d21/d0, where each cluster was enriched for a different vaccination route and different levels of antibody response</t>
   </si>
   <si>
     <t>3d vs 1d</t>

--- a/reformatted_data/cell_type-recreated_template.xlsx
+++ b/reformatted_data/cell_type-recreated_template.xlsx
@@ -1484,7 +1484,7 @@
     <t>10d vs 0d</t>
   </si>
   <si>
-    <t>positively correlated with antibody response at 28d &amp; onward</t>
+    <t xml:space="preserve">positively correlated with antibody response at 28d &amp; onward. </t>
   </si>
   <si>
     <t>1d vs 0d</t>
@@ -1562,7 +1562,7 @@
     <t>high vs low inositol phosphate metabolism</t>
   </si>
   <si>
-    <t>group 2 (4mo: HBV &amp; OPV. 9mo: MV+DTP (i.m). 11mo: outstanding vaccines) vs groups 1 (4mo: 3rd dose of DTP, HBV, OPV. 9mo: 1 i.m dose of MV Edmonstron Zagreb strain. 11mo: outstanding vaccines) &amp; 3 (4mo: HBV &amp; OPV. 9mo: DTP. 11mo: outstanding vaccines)</t>
+    <t xml:space="preserve">group 2 (4mo: HBV &amp; OPV. 9mo: MV+DTP (i.m). 11mo: outstanding vaccines) vs groups 1 (4mo: 3rd dose of DTP, HBV, OPV. 9mo: 1 i.m dose of MV Edmonstron Zagreb strain. 11mo: outstanding vaccines) &amp; 3 (4mo: HBV &amp; OPV. 9mo: DTP. 11mo: outstanding vaccines) </t>
   </si>
   <si>
     <t>86d vs 0d</t>
@@ -1574,7 +1574,7 @@
     <t>S2 vs S1 as defined by hierarchical clustering of gene expression</t>
   </si>
   <si>
-    <t>S2 vs S1 as defined by hierarchical clustering of gene expression. Both clusters d21/d0, where each cluster was enriched for a different vaccination route and different levels of antibody response</t>
+    <t xml:space="preserve">S2 vs S1 as defined by hierarchical clustering of gene expression. Both clusters d21/d0, where each cluster was enriched for a different vaccination route and different levels of antibody response. </t>
   </si>
   <si>
     <t>3d vs 1d</t>

--- a/reformatted_data/cell_type-recreated_template.xlsx
+++ b/reformatted_data/cell_type-recreated_template.xlsx
@@ -671,7 +671,7 @@
     <t>skin of body</t>
   </si>
   <si>
-    <t>Cell Ontology ID</t>
+    <t>tissue cell ontology ID</t>
   </si>
   <si>
     <t>UBERON:0000178</t>
@@ -686,7 +686,7 @@
     <t>UBERON:0002097</t>
   </si>
   <si>
-    <t>response component (original cell type)</t>
+    <t>response component (original curated cell type)</t>
   </si>
   <si>
     <t>CD56-bright natural killer (NK) cells</t>
@@ -2183,130 +2183,130 @@
     <t>- roughly 60/40 female:male ratio, over 70% were Causasian</t>
   </si>
   <si>
-    <t>cell ontology ID</t>
-  </si>
-  <si>
-    <t>CL_0000946</t>
-  </si>
-  <si>
-    <t>CL_0000904</t>
-  </si>
-  <si>
-    <t>CL_0000900</t>
-  </si>
-  <si>
-    <t>CL_0000980</t>
-  </si>
-  <si>
-    <t>CL_0000623</t>
-  </si>
-  <si>
-    <t>CL_0000979</t>
-  </si>
-  <si>
-    <t>CL_0000782</t>
-  </si>
-  <si>
-    <t>CL_0000784</t>
-  </si>
-  <si>
-    <t>CL_0000084</t>
-  </si>
-  <si>
-    <t>CL_0000905</t>
-  </si>
-  <si>
-    <t>CL_0000236</t>
-  </si>
-  <si>
-    <t>CL_0002057</t>
-  </si>
-  <si>
-    <t>CL_0000792</t>
-  </si>
-  <si>
-    <t>CL_0000786</t>
-  </si>
-  <si>
-    <t>CL_0000624</t>
-  </si>
-  <si>
-    <t>CL_0000625</t>
-  </si>
-  <si>
-    <t>CL_0000738</t>
-  </si>
-  <si>
-    <t>CL_0000787</t>
-  </si>
-  <si>
-    <t>CL_0000982</t>
-  </si>
-  <si>
-    <t>CL_0000576</t>
-  </si>
-  <si>
-    <t>CL_0000897</t>
-  </si>
-  <si>
-    <t>CL_0000983</t>
-  </si>
-  <si>
-    <t>CL_0000984</t>
-  </si>
-  <si>
-    <t>CL_0000788</t>
-  </si>
-  <si>
-    <t>CL_0000939</t>
-  </si>
-  <si>
-    <t>CL_0002397</t>
-  </si>
-  <si>
-    <t>CL_0002396</t>
-  </si>
-  <si>
-    <t>CL_0000896</t>
-  </si>
-  <si>
-    <t>CL_0000775</t>
-  </si>
-  <si>
-    <t>CL_0000542</t>
-  </si>
-  <si>
-    <t>CL_0001054</t>
-  </si>
-  <si>
-    <t>CL_0000451</t>
-  </si>
-  <si>
-    <t>CL_0000815</t>
-  </si>
-  <si>
-    <t>CL_0000794</t>
-  </si>
-  <si>
-    <t>CL_0000798</t>
-  </si>
-  <si>
-    <t>CL_0001041</t>
-  </si>
-  <si>
-    <t>protein ontology ID</t>
+    <t>response component cell ontology ID</t>
+  </si>
+  <si>
+    <t>CL:0000946</t>
+  </si>
+  <si>
+    <t>CL:0000904</t>
+  </si>
+  <si>
+    <t>CL:0000900</t>
+  </si>
+  <si>
+    <t>CL:0000980</t>
+  </si>
+  <si>
+    <t>CL:0000623</t>
+  </si>
+  <si>
+    <t>CL:0000979</t>
+  </si>
+  <si>
+    <t>CL:0000782</t>
+  </si>
+  <si>
+    <t>CL:0000784</t>
+  </si>
+  <si>
+    <t>CL:0000084</t>
+  </si>
+  <si>
+    <t>CL:0000905</t>
+  </si>
+  <si>
+    <t>CL:0000236</t>
+  </si>
+  <si>
+    <t>CL:0002057</t>
+  </si>
+  <si>
+    <t>CL:0000792</t>
+  </si>
+  <si>
+    <t>CL:0000786</t>
+  </si>
+  <si>
+    <t>CL:0000624</t>
+  </si>
+  <si>
+    <t>CL:0000625</t>
+  </si>
+  <si>
+    <t>CL:0000738</t>
+  </si>
+  <si>
+    <t>CL:0000787</t>
+  </si>
+  <si>
+    <t>CL:0000982</t>
+  </si>
+  <si>
+    <t>CL:0000576</t>
+  </si>
+  <si>
+    <t>CL:0000897</t>
+  </si>
+  <si>
+    <t>CL:0000983</t>
+  </si>
+  <si>
+    <t>CL:0000984</t>
+  </si>
+  <si>
+    <t>CL:0000788</t>
+  </si>
+  <si>
+    <t>CL:0000939</t>
+  </si>
+  <si>
+    <t>CL:0002397</t>
+  </si>
+  <si>
+    <t>CL:0002396</t>
+  </si>
+  <si>
+    <t>CL:0000896</t>
+  </si>
+  <si>
+    <t>CL:0000775</t>
+  </si>
+  <si>
+    <t>CL:0000542</t>
+  </si>
+  <si>
+    <t>CL:0001054</t>
+  </si>
+  <si>
+    <t>CL:0000451</t>
+  </si>
+  <si>
+    <t>CL:0000815</t>
+  </si>
+  <si>
+    <t>CL:0000794</t>
+  </si>
+  <si>
+    <t>CL:0000798</t>
+  </si>
+  <si>
+    <t>CL:0001041</t>
+  </si>
+  <si>
+    <t>response component marker protein ontology ID</t>
   </si>
   <si>
     <t>PR:000001024</t>
   </si>
   <si>
-    <t>PR:000001020, PR_000001002, PR:000001963</t>
-  </si>
-  <si>
-    <t>PR_000001412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR_P29965, PR_000001412 </t>
+    <t>PR:000001020, PR:000001002, PR:000001963</t>
+  </si>
+  <si>
+    <t>PR:000001412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR:P29965, PR:000001412 </t>
   </si>
   <si>
     <t>PR:000000017</t>
@@ -2324,7 +2324,7 @@
     <t>PR:000001138</t>
   </si>
   <si>
-    <t xml:space="preserve">PR_Q96D21 </t>
+    <t xml:space="preserve">PR:Q96D21 </t>
   </si>
   <si>
     <t>PR:000001961</t>
@@ -2336,31 +2336,31 @@
     <t>PR:000001963, PR:000001408, PR:000001289</t>
   </si>
   <si>
-    <t xml:space="preserve">PR_000001383, PR_000025670 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR:000001963, PR_000001203 </t>
-  </si>
-  <si>
-    <t>PR_000001002, PR:000001963</t>
-  </si>
-  <si>
-    <t>PR_000001002, PR:000001963, PR:000001408</t>
-  </si>
-  <si>
-    <t>PR_000001483</t>
-  </si>
-  <si>
-    <t>PR_000001024, PR_000001483</t>
-  </si>
-  <si>
-    <t>PR:000001889, PR_000001483</t>
+    <t xml:space="preserve">PR:000001383, PR:000025670 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR:000001963, PR:000001203 </t>
+  </si>
+  <si>
+    <t>PR:000001002, PR:000001963</t>
+  </si>
+  <si>
+    <t>PR:000001002, PR:000001963, PR:000001408</t>
+  </si>
+  <si>
+    <t>PR:000001483</t>
+  </si>
+  <si>
+    <t>PR:000001024, PR:000001483</t>
+  </si>
+  <si>
+    <t>PR:000001889, PR:000001483</t>
   </si>
   <si>
     <t>PR:000001889, PR:000001289, PR:000001020</t>
   </si>
   <si>
-    <t>PR:000001020, PR_000001002, PR:000001289, PR:000001963</t>
+    <t>PR:000001020, PR:000001002, PR:000001289, PR:000001963</t>
   </si>
   <si>
     <t>PR:000001020, PR:000029630</t>
@@ -2372,7 +2372,7 @@
     <t>PR:000001865</t>
   </si>
   <si>
-    <t>PR:000001020, PR_000001002, PR:000001289</t>
+    <t>PR:000001020, PR:000001002, PR:000001289</t>
   </si>
   <si>
     <t>PR:000001013</t>
@@ -2387,19 +2387,19 @@
     <t>PR:000003499</t>
   </si>
   <si>
-    <t xml:space="preserve">PR_000001412 </t>
+    <t xml:space="preserve">PR:000001412 </t>
   </si>
   <si>
     <t>PR:000029630</t>
   </si>
   <si>
-    <t xml:space="preserve">PR_000001350 </t>
+    <t xml:space="preserve">PR:000001350 </t>
   </si>
   <si>
     <t>PR:000001020, PR:000001024</t>
   </si>
   <si>
-    <t xml:space="preserve">PR:000001379, PR_000002307 </t>
+    <t xml:space="preserve">PR:000001379, PR:000002307 </t>
   </si>
   <si>
     <t>PR:000001343</t>
@@ -2411,16 +2411,16 @@
     <t>PR:000002060, PR:000000017</t>
   </si>
   <si>
-    <t>PR_000001002, PR:000001343</t>
+    <t>PR:000001002, PR:000001343</t>
   </si>
   <si>
     <t>PR:000001467</t>
   </si>
   <si>
-    <t xml:space="preserve">PR_000001483, PR_000001024, PR:000001020 </t>
-  </si>
-  <si>
-    <t>PR_000001017, PR_000001203</t>
+    <t xml:space="preserve">PR:000001483, PR:000001024, PR:000001020 </t>
+  </si>
+  <si>
+    <t>PR:000001017, PR:000001203</t>
   </si>
   <si>
     <t>PR:000001963, PR:000001408</t>
@@ -2444,7 +2444,7 @@
     <t>response component count</t>
   </si>
   <si>
-    <t>ID of observation within its own submission</t>
+    <t xml:space="preserve">ID of observation within a publication (PMID) and for its submission type </t>
   </si>
   <si>
     <t>12</t>
@@ -2468,7 +2468,7 @@
     <t>24</t>
   </si>
   <si>
-    <t>Uniq ID of observation within its submission type</t>
+    <t>ID of observation within its submission type</t>
   </si>
   <si>
     <t>31</t>

--- a/reformatted_data/cell_type-recreated_template.xlsx
+++ b/reformatted_data/cell_type-recreated_template.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7296" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7296" uniqueCount="1138">
   <si>
     <t/>
   </si>
@@ -482,7 +482,7 @@
     <t>observed</t>
   </si>
   <si>
-    <t>Any characteristics of the population(s) studied, plus whether the result was taken from a subgroup of the cohort tested.</t>
+    <t>Cohort - any characteristics of the population(s) studied, plus whether the result was taken from a subgroup of the broader cohort tested.</t>
   </si>
   <si>
     <t>young (20â€“30 years), older (60 to &gt;89 years)</t>
@@ -1358,7 +1358,7 @@
     <t>vaccine</t>
   </si>
   <si>
-    <t>exposure material vaccine ontology ID (VO)</t>
+    <t>exposure material</t>
   </si>
   <si>
     <t>VO:0000071; VO:0000072</t>
@@ -1445,7 +1445,7 @@
     <t>VO:0000410</t>
   </si>
   <si>
-    <t>exposure material - additional</t>
+    <t>additional exposure material</t>
   </si>
   <si>
     <t>ex-vivo restimulation with live VZV</t>
@@ -1547,6 +1547,9 @@
     <t>AS03 (GSK)</t>
   </si>
   <si>
+    <t>subcutaneous</t>
+  </si>
+  <si>
     <t>publication reference (PMID)</t>
   </si>
   <si>
@@ -2156,9 +2159,6 @@
     <t>EM131 elderly cohort (65-83)</t>
   </si>
   <si>
-    <t>R and P-values in text do not seem to match those in figure.</t>
-  </si>
-  <si>
     <t>5A is comparisions within group against baseline</t>
   </si>
   <si>
@@ -2171,16 +2171,13 @@
     <t>Caucasion older adults (50-74)</t>
   </si>
   <si>
-    <t>-2:1 ratio of female:male</t>
-  </si>
-  <si>
-    <t>-1 intramuscular dose</t>
-  </si>
-  <si>
-    <t>-taken subcutaneous</t>
-  </si>
-  <si>
-    <t>- roughly 60/40 female:male ratio, over 70% were Causasian</t>
+    <t>2:1 ratio of female:male</t>
+  </si>
+  <si>
+    <t>1 intramuscular dose</t>
+  </si>
+  <si>
+    <t>roughly 60/40 female:male ratio, over 70% were Causasian</t>
   </si>
   <si>
     <t>response component cell ontology ID</t>
@@ -3794,7 +3791,7 @@
         <v>152</v>
       </c>
       <c r="AB3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AC3" t="s">
         <v>152</v>
@@ -3910,7 +3907,7 @@
         <v>153</v>
       </c>
       <c r="AB4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AC4" t="s">
         <v>153</v>
@@ -4252,43 +4249,43 @@
         <v>24</v>
       </c>
       <c r="Z7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AA7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AB7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AC7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AD7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AE7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AF7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AG7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AH7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AI7" t="s">
+        <v>808</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>809</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>810</v>
-      </c>
       <c r="AK7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AL7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="8">
@@ -4368,25 +4365,25 @@
         <v>0</v>
       </c>
       <c r="Z8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AA8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB8" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AC8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AD8" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AE8" t="s">
         <v>0</v>
       </c>
       <c r="AF8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AG8" t="s">
         <v>0</v>
@@ -4404,7 +4401,7 @@
         <v>400</v>
       </c>
       <c r="AL8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="9">
@@ -4484,25 +4481,25 @@
         <v>0</v>
       </c>
       <c r="Z9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AA9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AC9" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AD9" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AE9" t="s">
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AG9" t="s">
         <v>0</v>
@@ -4514,13 +4511,13 @@
         <v>399</v>
       </c>
       <c r="AJ9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AL9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="10">
@@ -4600,25 +4597,25 @@
         <v>0</v>
       </c>
       <c r="Z10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AA10" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AC10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AD10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AE10" t="s">
         <v>0</v>
       </c>
       <c r="AF10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AG10" t="s">
         <v>0</v>
@@ -4636,7 +4633,7 @@
         <v>397</v>
       </c>
       <c r="AL10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11">
@@ -4716,25 +4713,25 @@
         <v>0</v>
       </c>
       <c r="Z11" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AA11" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB11" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AC11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AD11" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AE11" t="s">
         <v>0</v>
       </c>
       <c r="AF11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AG11" t="s">
         <v>0</v>
@@ -4752,7 +4749,7 @@
         <v>197</v>
       </c>
       <c r="AL11" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="12">
@@ -4832,25 +4829,25 @@
         <v>0</v>
       </c>
       <c r="Z12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AA12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB12" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AC12" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AD12" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AE12" t="s">
         <v>0</v>
       </c>
       <c r="AF12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AG12" t="s">
         <v>0</v>
@@ -4862,13 +4859,13 @@
         <v>399</v>
       </c>
       <c r="AJ12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AK12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AL12" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="13">
@@ -4948,43 +4945,43 @@
         <v>0</v>
       </c>
       <c r="Z13" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AA13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AB13" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AC13" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AD13" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AE13" t="s">
         <v>0</v>
       </c>
       <c r="AF13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG13" t="s">
         <v>0</v>
       </c>
       <c r="AH13" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI13" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ13" t="s">
         <v>399</v>
       </c>
       <c r="AK13" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AL13" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="14">
@@ -5064,25 +5061,25 @@
         <v>0</v>
       </c>
       <c r="Z14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AA14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AB14" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AC14" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AD14" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AE14" t="s">
         <v>0</v>
       </c>
       <c r="AF14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG14" t="s">
         <v>0</v>
@@ -5094,13 +5091,13 @@
         <v>181</v>
       </c>
       <c r="AJ14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK14" t="s">
         <v>174</v>
       </c>
       <c r="AL14" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="15">
@@ -5180,25 +5177,25 @@
         <v>0</v>
       </c>
       <c r="Z15" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AA15" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AB15" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AC15" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AD15" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AE15" t="s">
         <v>0</v>
       </c>
       <c r="AF15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AG15" t="s">
         <v>0</v>
@@ -5216,7 +5213,7 @@
         <v>208</v>
       </c>
       <c r="AL15" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="16">
@@ -5296,43 +5293,43 @@
         <v>0</v>
       </c>
       <c r="Z16" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AA16" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AB16" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AC16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AD16" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AE16" t="s">
         <v>0</v>
       </c>
       <c r="AF16" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG16" t="s">
         <v>0</v>
       </c>
       <c r="AH16" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI16" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ16" t="s">
         <v>181</v>
       </c>
       <c r="AK16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AL16" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="17">
@@ -5412,25 +5409,25 @@
         <v>0</v>
       </c>
       <c r="Z17" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AA17" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AB17" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AC17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AD17" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AE17" t="s">
         <v>0</v>
       </c>
       <c r="AF17" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG17" t="s">
         <v>0</v>
@@ -5442,13 +5439,13 @@
         <v>181</v>
       </c>
       <c r="AJ17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AK17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AL17" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="18">
@@ -5528,25 +5525,25 @@
         <v>0</v>
       </c>
       <c r="Z18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AA18" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AB18" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AC18" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AD18" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AE18" t="s">
         <v>0</v>
       </c>
       <c r="AF18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AG18" t="s">
         <v>0</v>
@@ -5564,7 +5561,7 @@
         <v>172</v>
       </c>
       <c r="AL18" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="19">
@@ -5644,25 +5641,25 @@
         <v>0</v>
       </c>
       <c r="Z19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AA19" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AB19" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AC19" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AD19" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AE19" t="s">
         <v>0</v>
       </c>
       <c r="AF19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AG19" t="s">
         <v>0</v>
@@ -5677,10 +5674,10 @@
         <v>399</v>
       </c>
       <c r="AK19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AL19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="20">
@@ -5760,25 +5757,25 @@
         <v>0</v>
       </c>
       <c r="Z20" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AA20" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AB20" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AC20" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AD20" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AE20" t="s">
         <v>0</v>
       </c>
       <c r="AF20" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AG20" t="s">
         <v>0</v>
@@ -5790,13 +5787,13 @@
         <v>399</v>
       </c>
       <c r="AJ20" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK20" t="s">
         <v>173</v>
       </c>
       <c r="AL20" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="21">
@@ -5876,25 +5873,25 @@
         <v>0</v>
       </c>
       <c r="Z21" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AA21" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AB21" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AC21" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AD21" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AE21" t="s">
         <v>0</v>
       </c>
       <c r="AF21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AG21" t="s">
         <v>0</v>
@@ -5912,7 +5909,7 @@
         <v>184</v>
       </c>
       <c r="AL21" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="22">
@@ -5992,28 +5989,28 @@
         <v>0</v>
       </c>
       <c r="Z22" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AA22" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB22" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AC22" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AD22" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AE22" t="s">
         <v>0</v>
       </c>
       <c r="AF22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG22" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AH22" t="s">
         <v>399</v>
@@ -6025,10 +6022,10 @@
         <v>399</v>
       </c>
       <c r="AK22" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AL22" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="23">
@@ -6108,43 +6105,43 @@
         <v>0</v>
       </c>
       <c r="Z23" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AA23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB23" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AC23" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AD23" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AE23" t="s">
         <v>0</v>
       </c>
       <c r="AF23" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AG23" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AH23" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI23" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ23" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK23" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AL23" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="24">
@@ -6224,28 +6221,28 @@
         <v>0</v>
       </c>
       <c r="Z24" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AA24" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB24" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AC24" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AD24" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AE24" t="s">
         <v>0</v>
       </c>
       <c r="AF24" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AG24" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AH24" t="s">
         <v>181</v>
@@ -6257,10 +6254,10 @@
         <v>398</v>
       </c>
       <c r="AK24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AL24" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="25">
@@ -6340,28 +6337,28 @@
         <v>0</v>
       </c>
       <c r="Z25" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AA25" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB25" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AC25" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AD25" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AE25" t="s">
         <v>0</v>
       </c>
       <c r="AF25" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AH25" t="s">
         <v>400</v>
@@ -6376,7 +6373,7 @@
         <v>179</v>
       </c>
       <c r="AL25" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="26">
@@ -6456,28 +6453,28 @@
         <v>0</v>
       </c>
       <c r="Z26" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA26" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB26" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AC26" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AD26" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AE26" t="s">
         <v>0</v>
       </c>
       <c r="AF26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AG26" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AH26" t="s">
         <v>399</v>
@@ -6492,7 +6489,7 @@
         <v>190</v>
       </c>
       <c r="AL26" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="27">
@@ -6572,28 +6569,28 @@
         <v>0</v>
       </c>
       <c r="Z27" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA27" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB27" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AC27" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AD27" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AE27" t="s">
         <v>0</v>
       </c>
       <c r="AF27" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AG27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AH27" t="s">
         <v>399</v>
@@ -6602,13 +6599,13 @@
         <v>399</v>
       </c>
       <c r="AJ27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK27" t="s">
         <v>191</v>
       </c>
       <c r="AL27" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="28">
@@ -6688,34 +6685,34 @@
         <v>0</v>
       </c>
       <c r="Z28" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA28" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB28" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AC28" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AD28" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AE28" t="s">
         <v>0</v>
       </c>
       <c r="AF28" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AG28" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AH28" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI28" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ28" t="s">
         <v>398</v>
@@ -6724,7 +6721,7 @@
         <v>396</v>
       </c>
       <c r="AL28" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="29">
@@ -6804,25 +6801,25 @@
         <v>0</v>
       </c>
       <c r="Z29" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AA29" t="s">
         <v>501</v>
       </c>
       <c r="AB29" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AC29" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AD29" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AE29" t="s">
         <v>0</v>
       </c>
       <c r="AF29" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AG29" t="s">
         <v>0</v>
@@ -6840,7 +6837,7 @@
         <v>207</v>
       </c>
       <c r="AL29" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="30">
@@ -6920,25 +6917,25 @@
         <v>0</v>
       </c>
       <c r="Z30" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AA30" t="s">
         <v>501</v>
       </c>
       <c r="AB30" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AC30" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AD30" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AE30" t="s">
         <v>0</v>
       </c>
       <c r="AF30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AG30" t="s">
         <v>0</v>
@@ -6950,13 +6947,13 @@
         <v>399</v>
       </c>
       <c r="AJ30" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK30" t="s">
         <v>175</v>
       </c>
       <c r="AL30" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="31">
@@ -7036,43 +7033,43 @@
         <v>0</v>
       </c>
       <c r="Z31" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AA31" t="s">
         <v>501</v>
       </c>
       <c r="AB31" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AC31" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AD31" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AE31" t="s">
         <v>0</v>
       </c>
       <c r="AF31" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AG31" t="s">
         <v>0</v>
       </c>
       <c r="AH31" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI31" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ31" t="s">
         <v>398</v>
       </c>
       <c r="AK31" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AL31" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="32">
@@ -7152,25 +7149,25 @@
         <v>0</v>
       </c>
       <c r="Z32" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AA32" t="s">
         <v>501</v>
       </c>
       <c r="AB32" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AC32" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AD32" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AE32" t="s">
         <v>0</v>
       </c>
       <c r="AF32" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AG32" t="s">
         <v>0</v>
@@ -7185,10 +7182,10 @@
         <v>181</v>
       </c>
       <c r="AK32" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AL32" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="33">
@@ -7268,25 +7265,25 @@
         <v>0</v>
       </c>
       <c r="Z33" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AA33" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AB33" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AC33" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AD33" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AE33" t="s">
         <v>0</v>
       </c>
       <c r="AF33" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AG33" t="s">
         <v>0</v>
@@ -7304,7 +7301,7 @@
         <v>210</v>
       </c>
       <c r="AL33" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="34">
@@ -7384,25 +7381,25 @@
         <v>0</v>
       </c>
       <c r="Z34" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AA34" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB34" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AC34" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AD34" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AE34" t="s">
         <v>0</v>
       </c>
       <c r="AF34" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AG34" t="s">
         <v>0</v>
@@ -7417,10 +7414,10 @@
         <v>399</v>
       </c>
       <c r="AK34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AL34" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="35">
@@ -7500,28 +7497,28 @@
         <v>0</v>
       </c>
       <c r="Z35" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA35" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB35" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AC35" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AD35" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AE35" t="s">
         <v>0</v>
       </c>
       <c r="AF35" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AG35" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AH35" t="s">
         <v>399</v>
@@ -7533,10 +7530,10 @@
         <v>399</v>
       </c>
       <c r="AK35" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AL35" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="36">
@@ -7616,28 +7613,28 @@
         <v>0</v>
       </c>
       <c r="Z36" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA36" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB36" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AC36" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AD36" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AE36" t="s">
         <v>0</v>
       </c>
       <c r="AF36" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AG36" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AH36" t="s">
         <v>399</v>
@@ -7646,13 +7643,13 @@
         <v>399</v>
       </c>
       <c r="AJ36" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK36" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AL36" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="37">
@@ -7732,28 +7729,28 @@
         <v>0</v>
       </c>
       <c r="Z37" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA37" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB37" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AC37" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AD37" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AE37" t="s">
         <v>0</v>
       </c>
       <c r="AF37" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AG37" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AH37" t="s">
         <v>399</v>
@@ -7765,10 +7762,10 @@
         <v>398</v>
       </c>
       <c r="AK37" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AL37" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="38">
@@ -7848,28 +7845,28 @@
         <v>0</v>
       </c>
       <c r="Z38" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA38" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB38" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AC38" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AD38" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AE38" t="s">
         <v>0</v>
       </c>
       <c r="AF38" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AG38" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AH38" t="s">
         <v>399</v>
@@ -7881,10 +7878,10 @@
         <v>181</v>
       </c>
       <c r="AK38" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AL38" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="39">
@@ -7964,28 +7961,28 @@
         <v>0</v>
       </c>
       <c r="Z39" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA39" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB39" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AC39" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AD39" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AE39" t="s">
         <v>0</v>
       </c>
       <c r="AF39" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG39" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AH39" t="s">
         <v>399</v>
@@ -7994,13 +7991,13 @@
         <v>399</v>
       </c>
       <c r="AJ39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AK39" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AL39" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="40">
@@ -8080,28 +8077,28 @@
         <v>0</v>
       </c>
       <c r="Z40" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA40" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB40" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AC40" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AD40" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AE40" t="s">
         <v>0</v>
       </c>
       <c r="AF40" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG40" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AH40" t="s">
         <v>399</v>
@@ -8116,7 +8113,7 @@
         <v>193</v>
       </c>
       <c r="AL40" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="41">
@@ -8196,28 +8193,28 @@
         <v>0</v>
       </c>
       <c r="Z41" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AA41" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AB41" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AC41" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AD41" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AE41" t="s">
         <v>0</v>
       </c>
       <c r="AF41" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG41" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AH41" t="s">
         <v>399</v>
@@ -8229,10 +8226,10 @@
         <v>399</v>
       </c>
       <c r="AK41" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AL41" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="42">
@@ -8312,28 +8309,28 @@
         <v>0</v>
       </c>
       <c r="Z42" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AA42" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AB42" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AC42" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AD42" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AE42" t="s">
         <v>0</v>
       </c>
       <c r="AF42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG42" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AH42" t="s">
         <v>399</v>
@@ -8342,13 +8339,13 @@
         <v>399</v>
       </c>
       <c r="AJ42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK42" t="s">
         <v>198</v>
       </c>
       <c r="AL42" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="43">
@@ -8428,28 +8425,28 @@
         <v>0</v>
       </c>
       <c r="Z43" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AA43" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB43" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AC43" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AD43" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AE43" t="s">
         <v>0</v>
       </c>
       <c r="AF43" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG43" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AH43" t="s">
         <v>399</v>
@@ -8461,10 +8458,10 @@
         <v>399</v>
       </c>
       <c r="AK43" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AL43" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="44">
@@ -8544,28 +8541,28 @@
         <v>0</v>
       </c>
       <c r="Z44" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AA44" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB44" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AC44" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AD44" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AE44" t="s">
         <v>0</v>
       </c>
       <c r="AF44" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG44" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AH44" t="s">
         <v>399</v>
@@ -8574,13 +8571,13 @@
         <v>399</v>
       </c>
       <c r="AJ44" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK44" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AL44" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="45">
@@ -8660,16 +8657,16 @@
         <v>0</v>
       </c>
       <c r="Z45" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AA45" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AB45" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AC45" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AD45" t="s">
         <v>0</v>
@@ -8678,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="AF45" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AG45" t="s">
         <v>0</v>
@@ -8696,7 +8693,7 @@
         <v>186</v>
       </c>
       <c r="AL45" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="46">
@@ -8776,43 +8773,43 @@
         <v>0</v>
       </c>
       <c r="Z46" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AA46" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB46" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AC46" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AD46" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AE46" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AF46" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AG46" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AH46" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI46" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ46" t="s">
         <v>399</v>
       </c>
       <c r="AK46" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AL46" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="47">
@@ -8892,43 +8889,43 @@
         <v>0</v>
       </c>
       <c r="Z47" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AA47" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB47" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AC47" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AD47" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AE47" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AF47" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG47" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AH47" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI47" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ47" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AL47" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="48">
@@ -9008,16 +9005,16 @@
         <v>0</v>
       </c>
       <c r="Z48" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA48" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB48" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AC48" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AD48" t="s">
         <v>0</v>
@@ -9026,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="AF48" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AG48" t="s">
         <v>0</v>
@@ -9041,10 +9038,10 @@
         <v>399</v>
       </c>
       <c r="AK48" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AL48" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="49">
@@ -9124,25 +9121,25 @@
         <v>0</v>
       </c>
       <c r="Z49" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AA49" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB49" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AC49" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD49" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AE49" t="s">
         <v>0</v>
       </c>
       <c r="AF49" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AG49" t="s">
         <v>0</v>
@@ -9160,7 +9157,7 @@
         <v>201</v>
       </c>
       <c r="AL49" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="50">
@@ -9240,43 +9237,43 @@
         <v>0</v>
       </c>
       <c r="Z50" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AA50" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB50" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AC50" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AD50" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AE50" t="s">
         <v>0</v>
       </c>
       <c r="AF50" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG50" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AH50" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AI50" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AJ50" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK50" t="s">
         <v>176</v>
       </c>
       <c r="AL50" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="51">
@@ -9356,34 +9353,34 @@
         <v>0</v>
       </c>
       <c r="Z51" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AA51" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB51" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AC51" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AD51" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AE51" t="s">
         <v>0</v>
       </c>
       <c r="AF51" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AG51" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AH51" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI51" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ51" t="s">
         <v>398</v>
@@ -9392,7 +9389,7 @@
         <v>202</v>
       </c>
       <c r="AL51" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="52">
@@ -9472,28 +9469,28 @@
         <v>0</v>
       </c>
       <c r="Z52" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AA52" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB52" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AC52" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AD52" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AE52" t="s">
         <v>0</v>
       </c>
       <c r="AF52" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AG52" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AH52" t="s">
         <v>400</v>
@@ -9508,7 +9505,7 @@
         <v>180</v>
       </c>
       <c r="AL52" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="53">
@@ -9588,25 +9585,25 @@
         <v>0</v>
       </c>
       <c r="Z53" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AA53" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB53" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AC53" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AD53" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AE53" t="s">
         <v>0</v>
       </c>
       <c r="AF53" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AG53" t="s">
         <v>0</v>
@@ -9618,13 +9615,13 @@
         <v>399</v>
       </c>
       <c r="AJ53" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AK53" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AL53" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="54">
@@ -9704,28 +9701,28 @@
         <v>0</v>
       </c>
       <c r="Z54" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AA54" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB54" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AC54" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AD54" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AE54" t="s">
         <v>0</v>
       </c>
       <c r="AF54" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG54" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AH54" t="s">
         <v>401</v>
@@ -9737,10 +9734,10 @@
         <v>401</v>
       </c>
       <c r="AK54" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AL54" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="55">
@@ -9820,28 +9817,28 @@
         <v>0</v>
       </c>
       <c r="Z55" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AA55" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB55" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AC55" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AD55" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AE55" t="s">
         <v>0</v>
       </c>
       <c r="AF55" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AG55" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AH55" t="s">
         <v>399</v>
@@ -9856,7 +9853,7 @@
         <v>189</v>
       </c>
       <c r="AL55" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
@@ -9936,25 +9933,25 @@
         <v>0</v>
       </c>
       <c r="Z56" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA56" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AB56" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AC56" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AD56" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AE56" t="s">
         <v>0</v>
       </c>
       <c r="AF56" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AG56" t="s">
         <v>0</v>
@@ -9969,10 +9966,10 @@
         <v>399</v>
       </c>
       <c r="AK56" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AL56" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="57">
@@ -10052,25 +10049,25 @@
         <v>0</v>
       </c>
       <c r="Z57" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA57" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AB57" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AC57" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AD57" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AE57" t="s">
         <v>0</v>
       </c>
       <c r="AF57" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AG57" t="s">
         <v>0</v>
@@ -10082,13 +10079,13 @@
         <v>399</v>
       </c>
       <c r="AJ57" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK57" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AL57" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="58">
@@ -10168,25 +10165,25 @@
         <v>0</v>
       </c>
       <c r="Z58" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA58" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AB58" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AC58" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AD58" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AE58" t="s">
         <v>0</v>
       </c>
       <c r="AF58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AG58" t="s">
         <v>0</v>
@@ -10204,7 +10201,7 @@
         <v>211</v>
       </c>
       <c r="AL58" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="59">
@@ -10284,25 +10281,25 @@
         <v>0</v>
       </c>
       <c r="Z59" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA59" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AB59" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AC59" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AD59" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AE59" t="s">
         <v>0</v>
       </c>
       <c r="AF59" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AG59" t="s">
         <v>0</v>
@@ -10317,10 +10314,10 @@
         <v>181</v>
       </c>
       <c r="AK59" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AL59" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="60">
@@ -10400,25 +10397,25 @@
         <v>0</v>
       </c>
       <c r="Z60" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA60" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AB60" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AC60" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AD60" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AE60" t="s">
         <v>0</v>
       </c>
       <c r="AF60" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AG60" t="s">
         <v>0</v>
@@ -10430,13 +10427,13 @@
         <v>399</v>
       </c>
       <c r="AJ60" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AK60" t="s">
         <v>183</v>
       </c>
       <c r="AL60" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="61">
@@ -10516,28 +10513,28 @@
         <v>0</v>
       </c>
       <c r="Z61" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AA61" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB61" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AC61" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AD61" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AE61" t="s">
         <v>0</v>
       </c>
       <c r="AF61" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AG61" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AH61" t="s">
         <v>398</v>
@@ -10549,10 +10546,10 @@
         <v>399</v>
       </c>
       <c r="AK61" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AL61" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="62">
@@ -10632,28 +10629,28 @@
         <v>0</v>
       </c>
       <c r="Z62" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AA62" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB62" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AC62" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AD62" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AE62" t="s">
         <v>0</v>
       </c>
       <c r="AF62" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AG62" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AH62" t="s">
         <v>399</v>
@@ -10662,13 +10659,13 @@
         <v>399</v>
       </c>
       <c r="AJ62" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK62" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AL62" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="63">
@@ -10748,34 +10745,34 @@
         <v>0</v>
       </c>
       <c r="Z63" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AA63" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB63" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AC63" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AD63" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AE63" t="s">
         <v>0</v>
       </c>
       <c r="AF63" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AG63" t="s">
         <v>0</v>
       </c>
       <c r="AH63" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI63" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ63" t="s">
         <v>398</v>
@@ -10784,7 +10781,7 @@
         <v>409</v>
       </c>
       <c r="AL63" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="64">
@@ -10864,25 +10861,25 @@
         <v>0</v>
       </c>
       <c r="Z64" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AA64" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB64" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AC64" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AD64" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AE64" t="s">
         <v>0</v>
       </c>
       <c r="AF64" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AG64" t="s">
         <v>0</v>
@@ -10900,7 +10897,7 @@
         <v>188</v>
       </c>
       <c r="AL64" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="65">
@@ -10980,25 +10977,25 @@
         <v>0</v>
       </c>
       <c r="Z65" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AA65" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB65" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AC65" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AD65" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AE65" t="s">
         <v>0</v>
       </c>
       <c r="AF65" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AG65" t="s">
         <v>0</v>
@@ -11010,13 +11007,13 @@
         <v>399</v>
       </c>
       <c r="AJ65" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AK65" t="s">
         <v>177</v>
       </c>
       <c r="AL65" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="66">
@@ -11096,25 +11093,25 @@
         <v>0</v>
       </c>
       <c r="Z66" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AA66" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB66" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AC66" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AD66" t="s">
         <v>0</v>
       </c>
       <c r="AE66" t="s">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="AF66" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AG66" t="s">
         <v>0</v>
@@ -11129,10 +11126,10 @@
         <v>401</v>
       </c>
       <c r="AK66" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AL66" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="67">
@@ -11212,25 +11209,25 @@
         <v>0</v>
       </c>
       <c r="Z67" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA67" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB67" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC67" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD67" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AE67" t="s">
         <v>0</v>
       </c>
       <c r="AF67" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG67" t="s">
         <v>0</v>
@@ -11245,10 +11242,10 @@
         <v>399</v>
       </c>
       <c r="AK67" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AL67" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="68">
@@ -11328,28 +11325,28 @@
         <v>0</v>
       </c>
       <c r="Z68" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA68" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB68" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC68" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AD68" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AE68" t="s">
         <v>715</v>
       </c>
       <c r="AF68" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AG68" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AH68" t="s">
         <v>399</v>
@@ -11358,13 +11355,13 @@
         <v>399</v>
       </c>
       <c r="AJ68" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK68" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AL68" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="69">
@@ -11444,43 +11441,43 @@
         <v>0</v>
       </c>
       <c r="Z69" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA69" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB69" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC69" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AD69" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AE69" t="s">
         <v>0</v>
       </c>
       <c r="AF69" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG69" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AH69" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI69" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ69" t="s">
         <v>398</v>
       </c>
       <c r="AK69" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AL69" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="70">
@@ -11560,25 +11557,25 @@
         <v>0</v>
       </c>
       <c r="Z70" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA70" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB70" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC70" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD70" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AE70" t="s">
         <v>0</v>
       </c>
       <c r="AF70" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG70" t="s">
         <v>0</v>
@@ -11596,7 +11593,7 @@
         <v>182</v>
       </c>
       <c r="AL70" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="71">
@@ -11676,25 +11673,25 @@
         <v>0</v>
       </c>
       <c r="Z71" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA71" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB71" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC71" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD71" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AE71" t="s">
         <v>0</v>
       </c>
       <c r="AF71" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG71" t="s">
         <v>0</v>
@@ -11706,13 +11703,13 @@
         <v>399</v>
       </c>
       <c r="AJ71" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AK71" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AL71" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="72">
@@ -11792,25 +11789,25 @@
         <v>0</v>
       </c>
       <c r="Z72" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA72" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB72" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC72" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD72" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AE72" t="s">
         <v>0</v>
       </c>
       <c r="AF72" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG72" t="s">
         <v>0</v>
@@ -11828,7 +11825,7 @@
         <v>405</v>
       </c>
       <c r="AL72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="73">
@@ -11908,25 +11905,25 @@
         <v>0</v>
       </c>
       <c r="Z73" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA73" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB73" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC73" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD73" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AE73" t="s">
         <v>0</v>
       </c>
       <c r="AF73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG73" t="s">
         <v>0</v>
@@ -11941,10 +11938,10 @@
         <v>394</v>
       </c>
       <c r="AK73" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AL73" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="74">
@@ -12024,25 +12021,25 @@
         <v>0</v>
       </c>
       <c r="Z74" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA74" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB74" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC74" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD74" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AE74" t="s">
         <v>0</v>
       </c>
       <c r="AF74" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG74" t="s">
         <v>0</v>
@@ -12060,7 +12057,7 @@
         <v>195</v>
       </c>
       <c r="AL74" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="75">
@@ -12140,25 +12137,25 @@
         <v>0</v>
       </c>
       <c r="Z75" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA75" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB75" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC75" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD75" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AE75" t="s">
         <v>0</v>
       </c>
       <c r="AF75" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG75" t="s">
         <v>0</v>
@@ -12170,13 +12167,13 @@
         <v>399</v>
       </c>
       <c r="AJ75" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AK75" t="s">
         <v>192</v>
       </c>
       <c r="AL75" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="76">
@@ -12256,25 +12253,25 @@
         <v>0</v>
       </c>
       <c r="Z76" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA76" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB76" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC76" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD76" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AE76" t="s">
         <v>0</v>
       </c>
       <c r="AF76" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG76" t="s">
         <v>0</v>
@@ -12289,10 +12286,10 @@
         <v>397</v>
       </c>
       <c r="AK76" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AL76" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="77">
@@ -12372,25 +12369,25 @@
         <v>0</v>
       </c>
       <c r="Z77" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA77" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB77" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC77" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD77" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AE77" t="s">
         <v>0</v>
       </c>
       <c r="AF77" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG77" t="s">
         <v>0</v>
@@ -12405,10 +12402,10 @@
         <v>197</v>
       </c>
       <c r="AK77" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AL77" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="78">
@@ -12488,43 +12485,43 @@
         <v>0</v>
       </c>
       <c r="Z78" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA78" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB78" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC78" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AD78" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AE78" t="s">
         <v>0</v>
       </c>
       <c r="AF78" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG78" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AH78" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI78" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ78" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AK78" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AL78" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="79">
@@ -12604,43 +12601,43 @@
         <v>0</v>
       </c>
       <c r="Z79" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA79" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB79" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC79" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AD79" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AE79" t="s">
         <v>0</v>
       </c>
       <c r="AF79" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AG79" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AH79" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI79" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ79" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AK79" t="s">
         <v>196</v>
       </c>
       <c r="AL79" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="80">
@@ -12720,34 +12717,34 @@
         <v>0</v>
       </c>
       <c r="Z80" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA80" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB80" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC80" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AD80" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AE80" t="s">
         <v>0</v>
       </c>
       <c r="AF80" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG80" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AH80" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI80" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ80" t="s">
         <v>174</v>
@@ -12756,7 +12753,7 @@
         <v>200</v>
       </c>
       <c r="AL80" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="81">
@@ -12836,25 +12833,25 @@
         <v>0</v>
       </c>
       <c r="Z81" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA81" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB81" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC81" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD81" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AE81" t="s">
         <v>0</v>
       </c>
       <c r="AF81" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG81" t="s">
         <v>0</v>
@@ -12869,10 +12866,10 @@
         <v>208</v>
       </c>
       <c r="AK81" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AL81" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="82">
@@ -12952,25 +12949,25 @@
         <v>0</v>
       </c>
       <c r="Z82" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA82" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB82" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC82" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD82" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AE82" t="s">
         <v>0</v>
       </c>
       <c r="AF82" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG82" t="s">
         <v>0</v>
@@ -12982,13 +12979,13 @@
         <v>399</v>
       </c>
       <c r="AJ82" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AK82" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AL82" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="83">
@@ -13068,25 +13065,25 @@
         <v>0</v>
       </c>
       <c r="Z83" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA83" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB83" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC83" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD83" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AE83" t="s">
         <v>0</v>
       </c>
       <c r="AF83" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG83" t="s">
         <v>0</v>
@@ -13098,13 +13095,13 @@
         <v>399</v>
       </c>
       <c r="AJ83" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AK83" t="s">
         <v>194</v>
       </c>
       <c r="AL83" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="84">
@@ -13184,25 +13181,25 @@
         <v>0</v>
       </c>
       <c r="Z84" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA84" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB84" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC84" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD84" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AE84" t="s">
         <v>0</v>
       </c>
       <c r="AF84" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG84" t="s">
         <v>0</v>
@@ -13217,10 +13214,10 @@
         <v>172</v>
       </c>
       <c r="AK84" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AL84" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="85">
@@ -13300,25 +13297,25 @@
         <v>0</v>
       </c>
       <c r="Z85" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA85" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB85" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC85" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD85" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AE85" t="s">
         <v>0</v>
       </c>
       <c r="AF85" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG85" t="s">
         <v>0</v>
@@ -13330,13 +13327,13 @@
         <v>399</v>
       </c>
       <c r="AJ85" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AK85" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AL85" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="86">
@@ -13416,25 +13413,25 @@
         <v>0</v>
       </c>
       <c r="Z86" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA86" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB86" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC86" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD86" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AE86" t="s">
         <v>0</v>
       </c>
       <c r="AF86" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG86" t="s">
         <v>0</v>
@@ -13452,7 +13449,7 @@
         <v>404</v>
       </c>
       <c r="AL86" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="87">
@@ -13532,25 +13529,25 @@
         <v>0</v>
       </c>
       <c r="Z87" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA87" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB87" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC87" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD87" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AE87" t="s">
         <v>0</v>
       </c>
       <c r="AF87" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG87" t="s">
         <v>0</v>
@@ -13565,10 +13562,10 @@
         <v>184</v>
       </c>
       <c r="AK87" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AL87" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="88">
@@ -13648,25 +13645,25 @@
         <v>0</v>
       </c>
       <c r="Z88" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA88" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB88" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC88" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD88" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AE88" t="s">
         <v>0</v>
       </c>
       <c r="AF88" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG88" t="s">
         <v>0</v>
@@ -13678,13 +13675,13 @@
         <v>399</v>
       </c>
       <c r="AJ88" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AK88" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AL88" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="89">
@@ -13764,25 +13761,25 @@
         <v>0</v>
       </c>
       <c r="Z89" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA89" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB89" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC89" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD89" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AE89" t="s">
         <v>0</v>
       </c>
       <c r="AF89" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG89" t="s">
         <v>0</v>
@@ -13794,13 +13791,13 @@
         <v>399</v>
       </c>
       <c r="AJ89" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AK89" t="s">
         <v>187</v>
       </c>
       <c r="AL89" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="90">
@@ -13880,25 +13877,25 @@
         <v>0</v>
       </c>
       <c r="Z90" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA90" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB90" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC90" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AD90" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AE90" t="s">
         <v>0</v>
       </c>
       <c r="AF90" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AG90" t="s">
         <v>0</v>
@@ -13910,13 +13907,13 @@
         <v>399</v>
       </c>
       <c r="AJ90" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AK90" t="s">
         <v>406</v>
       </c>
       <c r="AL90" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="91">
@@ -13996,25 +13993,25 @@
         <v>0</v>
       </c>
       <c r="Z91" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA91" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB91" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC91" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AD91" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AE91" t="s">
         <v>0</v>
       </c>
       <c r="AF91" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AG91" t="s">
         <v>0</v>
@@ -14029,10 +14026,10 @@
         <v>179</v>
       </c>
       <c r="AK91" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AL91" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="92">
@@ -14112,28 +14109,28 @@
         <v>0</v>
       </c>
       <c r="Z92" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA92" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB92" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC92" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AD92" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AE92" t="s">
         <v>0</v>
       </c>
       <c r="AF92" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG92" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AH92" t="s">
         <v>399</v>
@@ -14145,10 +14142,10 @@
         <v>190</v>
       </c>
       <c r="AK92" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AL92" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="93">
@@ -14228,28 +14225,28 @@
         <v>0</v>
       </c>
       <c r="Z93" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA93" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB93" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC93" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AD93" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AE93" t="s">
         <v>0</v>
       </c>
       <c r="AF93" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AG93" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AH93" t="s">
         <v>399</v>
@@ -14264,7 +14261,7 @@
         <v>199</v>
       </c>
       <c r="AL93" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="94">
@@ -14344,25 +14341,25 @@
         <v>0</v>
       </c>
       <c r="Z94" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA94" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB94" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC94" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD94" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AE94" t="s">
         <v>0</v>
       </c>
       <c r="AF94" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AG94" t="s">
         <v>0</v>
@@ -14377,10 +14374,10 @@
         <v>396</v>
       </c>
       <c r="AK94" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AL94" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="95">
@@ -14460,25 +14457,25 @@
         <v>0</v>
       </c>
       <c r="Z95" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA95" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AB95" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC95" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD95" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AE95" t="s">
         <v>0</v>
       </c>
       <c r="AF95" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AG95" t="s">
         <v>0</v>
@@ -14493,10 +14490,10 @@
         <v>207</v>
       </c>
       <c r="AK95" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AL95" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="96">
@@ -14576,25 +14573,25 @@
         <v>0</v>
       </c>
       <c r="Z96" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AA96" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB96" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AC96" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AD96" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AE96" t="s">
         <v>0</v>
       </c>
       <c r="AF96" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AG96" t="s">
         <v>0</v>
@@ -14609,10 +14606,10 @@
         <v>399</v>
       </c>
       <c r="AK96" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AL96" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="97">
@@ -14692,25 +14689,25 @@
         <v>0</v>
       </c>
       <c r="Z97" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AA97" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB97" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AC97" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AD97" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AE97" t="s">
         <v>0</v>
       </c>
       <c r="AF97" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AG97" t="s">
         <v>0</v>
@@ -14722,13 +14719,13 @@
         <v>399</v>
       </c>
       <c r="AJ97" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK97" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AL97" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="98">
@@ -14808,25 +14805,25 @@
         <v>0</v>
       </c>
       <c r="Z98" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AA98" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB98" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AC98" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AD98" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AE98" t="s">
         <v>716</v>
       </c>
       <c r="AF98" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG98" t="s">
         <v>0</v>
@@ -14841,10 +14838,10 @@
         <v>399</v>
       </c>
       <c r="AK98" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AL98" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="99">
@@ -14924,25 +14921,25 @@
         <v>0</v>
       </c>
       <c r="Z99" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AA99" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB99" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AC99" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AD99" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AE99" t="s">
         <v>716</v>
       </c>
       <c r="AF99" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG99" t="s">
         <v>0</v>
@@ -14954,13 +14951,13 @@
         <v>399</v>
       </c>
       <c r="AJ99" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK99" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AL99" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="100">
@@ -15040,25 +15037,25 @@
         <v>0</v>
       </c>
       <c r="Z100" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AA100" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB100" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AC100" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AD100" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AE100" t="s">
         <v>716</v>
       </c>
       <c r="AF100" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG100" t="s">
         <v>0</v>
@@ -15073,10 +15070,10 @@
         <v>398</v>
       </c>
       <c r="AK100" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AL100" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="101">
@@ -15156,25 +15153,25 @@
         <v>0</v>
       </c>
       <c r="Z101" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AA101" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB101" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AC101" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AD101" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AE101" t="s">
         <v>0</v>
       </c>
       <c r="AF101" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AG101" t="s">
         <v>0</v>
@@ -15189,10 +15186,10 @@
         <v>399</v>
       </c>
       <c r="AK101" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL101" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="102">
@@ -15272,25 +15269,25 @@
         <v>0</v>
       </c>
       <c r="Z102" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AA102" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB102" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AC102" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AD102" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AE102" t="s">
         <v>0</v>
       </c>
       <c r="AF102" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AG102" t="s">
         <v>0</v>
@@ -15302,13 +15299,13 @@
         <v>399</v>
       </c>
       <c r="AJ102" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK102" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AL102" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="103">
@@ -15388,25 +15385,25 @@
         <v>0</v>
       </c>
       <c r="Z103" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA103" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB103" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC103" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AD103" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AE103" t="s">
         <v>0</v>
       </c>
       <c r="AF103" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG103" t="s">
         <v>0</v>
@@ -15421,10 +15418,10 @@
         <v>399</v>
       </c>
       <c r="AK103" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AL103" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="104">
@@ -15504,28 +15501,28 @@
         <v>0</v>
       </c>
       <c r="Z104" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA104" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB104" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC104" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AD104" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AE104" t="s">
         <v>0</v>
       </c>
       <c r="AF104" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG104" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AH104" t="s">
         <v>398</v>
@@ -15534,13 +15531,13 @@
         <v>398</v>
       </c>
       <c r="AJ104" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK104" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AL104" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="105">
@@ -15620,43 +15617,43 @@
         <v>0</v>
       </c>
       <c r="Z105" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA105" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB105" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC105" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AD105" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AE105" t="s">
         <v>0</v>
       </c>
       <c r="AF105" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AG105" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AH105" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AI105" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AJ105" t="s">
         <v>398</v>
       </c>
       <c r="AK105" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AL105" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="106">
@@ -15736,43 +15733,43 @@
         <v>0</v>
       </c>
       <c r="Z106" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA106" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB106" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC106" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AD106" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AE106" t="s">
         <v>0</v>
       </c>
       <c r="AF106" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AG106" t="s">
         <v>0</v>
       </c>
       <c r="AH106" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI106" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ106" t="s">
         <v>181</v>
       </c>
       <c r="AK106" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AL106" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="107">
@@ -15852,43 +15849,43 @@
         <v>0</v>
       </c>
       <c r="Z107" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA107" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB107" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC107" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AD107" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AE107" t="s">
         <v>0</v>
       </c>
       <c r="AF107" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG107" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AH107" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI107" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ107" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AK107" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AL107" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="108">
@@ -15968,25 +15965,25 @@
         <v>0</v>
       </c>
       <c r="Z108" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA108" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB108" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC108" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AD108" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AE108" t="s">
         <v>0</v>
       </c>
       <c r="AF108" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG108" t="s">
         <v>0</v>
@@ -16001,10 +15998,10 @@
         <v>401</v>
       </c>
       <c r="AK108" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AL108" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="109">
@@ -16084,28 +16081,28 @@
         <v>0</v>
       </c>
       <c r="Z109" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA109" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB109" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC109" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AD109" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AE109" t="s">
         <v>0</v>
       </c>
       <c r="AF109" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG109" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AH109" t="s">
         <v>398</v>
@@ -16117,10 +16114,10 @@
         <v>394</v>
       </c>
       <c r="AK109" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL109" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="110">
@@ -16200,28 +16197,28 @@
         <v>0</v>
       </c>
       <c r="Z110" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA110" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB110" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC110" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AD110" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AE110" t="s">
         <v>0</v>
       </c>
       <c r="AF110" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG110" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AH110" t="s">
         <v>398</v>
@@ -16233,10 +16230,10 @@
         <v>400</v>
       </c>
       <c r="AK110" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AL110" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="111">
@@ -16316,28 +16313,28 @@
         <v>0</v>
       </c>
       <c r="Z111" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA111" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB111" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC111" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AD111" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AE111" t="s">
         <v>0</v>
       </c>
       <c r="AF111" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AG111" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AH111" t="s">
         <v>399</v>
@@ -16346,13 +16343,13 @@
         <v>399</v>
       </c>
       <c r="AJ111" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AK111" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AL111" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="112">
@@ -16432,28 +16429,28 @@
         <v>0</v>
       </c>
       <c r="Z112" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA112" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB112" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC112" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AD112" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AE112" t="s">
         <v>0</v>
       </c>
       <c r="AF112" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AG112" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AH112" t="s">
         <v>181</v>
@@ -16465,10 +16462,10 @@
         <v>397</v>
       </c>
       <c r="AK112" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AL112" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="113">
@@ -16548,28 +16545,28 @@
         <v>0</v>
       </c>
       <c r="Z113" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA113" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB113" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC113" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AD113" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AE113" t="s">
         <v>0</v>
       </c>
       <c r="AF113" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG113" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AH113" t="s">
         <v>398</v>
@@ -16581,10 +16578,10 @@
         <v>197</v>
       </c>
       <c r="AK113" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AL113" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="114">
@@ -16664,43 +16661,43 @@
         <v>0</v>
       </c>
       <c r="Z114" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA114" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB114" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC114" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AD114" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AE114" t="s">
         <v>0</v>
       </c>
       <c r="AF114" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG114" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AH114" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI114" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ114" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AK114" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AL114" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="115">
@@ -16780,43 +16777,43 @@
         <v>0</v>
       </c>
       <c r="Z115" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA115" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB115" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC115" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AD115" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AE115" t="s">
         <v>0</v>
       </c>
       <c r="AF115" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AG115" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AH115" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI115" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ115" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AK115" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AL115" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="116">
@@ -16896,28 +16893,28 @@
         <v>0</v>
       </c>
       <c r="Z116" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA116" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB116" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC116" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD116" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AE116" t="s">
         <v>0</v>
       </c>
       <c r="AF116" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AG116" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AH116" t="s">
         <v>399</v>
@@ -16929,10 +16926,10 @@
         <v>174</v>
       </c>
       <c r="AK116" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AL116" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="117">
@@ -17012,28 +17009,28 @@
         <v>0</v>
       </c>
       <c r="Z117" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA117" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB117" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC117" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AD117" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AE117" t="s">
         <v>0</v>
       </c>
       <c r="AF117" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AG117" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AH117" t="s">
         <v>399</v>
@@ -17045,10 +17042,10 @@
         <v>208</v>
       </c>
       <c r="AK117" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AL117" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="118">
@@ -17128,28 +17125,28 @@
         <v>0</v>
       </c>
       <c r="Z118" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA118" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB118" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC118" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AD118" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AE118" t="s">
         <v>0</v>
       </c>
       <c r="AF118" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AG118" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AH118" t="s">
         <v>399</v>
@@ -17158,13 +17155,13 @@
         <v>399</v>
       </c>
       <c r="AJ118" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AK118" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AL118" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="119">
@@ -17244,28 +17241,28 @@
         <v>0</v>
       </c>
       <c r="Z119" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA119" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB119" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC119" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AD119" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AE119" t="s">
         <v>0</v>
       </c>
       <c r="AF119" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG119" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AH119" t="s">
         <v>399</v>
@@ -17274,13 +17271,13 @@
         <v>399</v>
       </c>
       <c r="AJ119" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AK119" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AL119" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="120">
@@ -17360,28 +17357,28 @@
         <v>0</v>
       </c>
       <c r="Z120" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA120" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB120" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC120" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AD120" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AE120" t="s">
         <v>0</v>
       </c>
       <c r="AF120" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG120" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AH120" t="s">
         <v>399</v>
@@ -17393,10 +17390,10 @@
         <v>172</v>
       </c>
       <c r="AK120" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AL120" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="121">
@@ -17476,28 +17473,28 @@
         <v>0</v>
       </c>
       <c r="Z121" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AA121" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AB121" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AC121" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AD121" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AE121" t="s">
         <v>717</v>
       </c>
       <c r="AF121" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG121" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AH121" t="s">
         <v>399</v>
@@ -17509,10 +17506,10 @@
         <v>399</v>
       </c>
       <c r="AK121" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AL121" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="122">
@@ -17592,28 +17589,28 @@
         <v>0</v>
       </c>
       <c r="Z122" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AA122" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AB122" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AC122" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AD122" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AE122" t="s">
         <v>717</v>
       </c>
       <c r="AF122" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG122" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AH122" t="s">
         <v>399</v>
@@ -17622,13 +17619,13 @@
         <v>399</v>
       </c>
       <c r="AJ122" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK122" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AL122" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="123">
@@ -17708,16 +17705,16 @@
         <v>0</v>
       </c>
       <c r="Z123" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AA123" t="s">
         <v>500</v>
       </c>
       <c r="AB123" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AC123" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AD123" t="s">
         <v>0</v>
@@ -17726,10 +17723,10 @@
         <v>0</v>
       </c>
       <c r="AF123" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AG123" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AH123" t="s">
         <v>399</v>
@@ -17741,10 +17738,10 @@
         <v>399</v>
       </c>
       <c r="AK123" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AL123" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="124">
@@ -17824,16 +17821,16 @@
         <v>0</v>
       </c>
       <c r="Z124" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AA124" t="s">
         <v>500</v>
       </c>
       <c r="AB124" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AC124" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AD124" t="s">
         <v>0</v>
@@ -17842,10 +17839,10 @@
         <v>0</v>
       </c>
       <c r="AF124" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AG124" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AH124" t="s">
         <v>399</v>
@@ -17854,13 +17851,13 @@
         <v>399</v>
       </c>
       <c r="AJ124" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK124" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AL124" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="125">
@@ -17940,16 +17937,16 @@
         <v>0</v>
       </c>
       <c r="Z125" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AA125" t="s">
         <v>500</v>
       </c>
       <c r="AB125" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AC125" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AD125" t="s">
         <v>0</v>
@@ -17958,25 +17955,25 @@
         <v>0</v>
       </c>
       <c r="AF125" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AG125" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AH125" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI125" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ125" t="s">
         <v>398</v>
       </c>
       <c r="AK125" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AL125" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="126">
@@ -18056,16 +18053,16 @@
         <v>0</v>
       </c>
       <c r="Z126" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AA126" t="s">
         <v>500</v>
       </c>
       <c r="AB126" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AC126" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AD126" t="s">
         <v>0</v>
@@ -18074,10 +18071,10 @@
         <v>0</v>
       </c>
       <c r="AF126" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AG126" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AH126" t="s">
         <v>399</v>
@@ -18089,10 +18086,10 @@
         <v>181</v>
       </c>
       <c r="AK126" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AL126" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="127">
@@ -18172,16 +18169,16 @@
         <v>0</v>
       </c>
       <c r="Z127" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AA127" t="s">
         <v>500</v>
       </c>
       <c r="AB127" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AC127" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AD127" t="s">
         <v>0</v>
@@ -18190,25 +18187,25 @@
         <v>0</v>
       </c>
       <c r="AF127" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG127" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AH127" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI127" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ127" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AK127" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AL127" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="128">
@@ -18288,25 +18285,25 @@
         <v>0</v>
       </c>
       <c r="Z128" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AA128" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AB128" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AC128" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AD128" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AE128" t="s">
         <v>718</v>
       </c>
       <c r="AF128" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG128" t="s">
         <v>0</v>
@@ -18321,10 +18318,10 @@
         <v>399</v>
       </c>
       <c r="AK128" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AL128" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="129">
@@ -18404,25 +18401,25 @@
         <v>0</v>
       </c>
       <c r="Z129" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AA129" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AB129" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AC129" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AD129" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AE129" t="s">
         <v>718</v>
       </c>
       <c r="AF129" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG129" t="s">
         <v>0</v>
@@ -18434,13 +18431,13 @@
         <v>399</v>
       </c>
       <c r="AJ129" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK129" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AL129" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="130">
@@ -18520,28 +18517,28 @@
         <v>0</v>
       </c>
       <c r="Z130" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AA130" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AB130" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AC130" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AD130" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AE130" t="s">
         <v>719</v>
       </c>
       <c r="AF130" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG130" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AH130" t="s">
         <v>399</v>
@@ -18553,10 +18550,10 @@
         <v>399</v>
       </c>
       <c r="AK130" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AL130" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="131">
@@ -18636,43 +18633,43 @@
         <v>0</v>
       </c>
       <c r="Z131" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AA131" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AB131" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AC131" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AD131" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AE131" t="s">
         <v>719</v>
       </c>
       <c r="AF131" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG131" t="s">
         <v>0</v>
       </c>
       <c r="AH131" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI131" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ131" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK131" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AL131" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="132">
@@ -18752,28 +18749,28 @@
         <v>0</v>
       </c>
       <c r="Z132" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AA132" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AB132" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AC132" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AD132" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AE132" t="s">
         <v>719</v>
       </c>
       <c r="AF132" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG132" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AH132" t="s">
         <v>399</v>
@@ -18785,10 +18782,10 @@
         <v>398</v>
       </c>
       <c r="AK132" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AL132" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="133">
@@ -18868,43 +18865,43 @@
         <v>0</v>
       </c>
       <c r="Z133" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AA133" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AB133" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AC133" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AD133" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AE133" t="s">
         <v>719</v>
       </c>
       <c r="AF133" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG133" t="s">
         <v>0</v>
       </c>
       <c r="AH133" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI133" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ133" t="s">
         <v>181</v>
       </c>
       <c r="AK133" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AL133" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="134">
@@ -18984,28 +18981,28 @@
         <v>0</v>
       </c>
       <c r="Z134" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AA134" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AB134" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AC134" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AD134" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AE134" t="s">
         <v>719</v>
       </c>
       <c r="AF134" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG134" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AH134" t="s">
         <v>399</v>
@@ -19014,13 +19011,13 @@
         <v>399</v>
       </c>
       <c r="AJ134" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AK134" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AL134" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="135">
@@ -19100,28 +19097,28 @@
         <v>0</v>
       </c>
       <c r="Z135" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AA135" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AB135" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AC135" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AD135" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AE135" t="s">
         <v>719</v>
       </c>
       <c r="AF135" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AG135" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AH135" t="s">
         <v>399</v>
@@ -19136,7 +19133,7 @@
         <v>209</v>
       </c>
       <c r="AL135" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="136">
@@ -19216,28 +19213,28 @@
         <v>0</v>
       </c>
       <c r="Z136" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AA136" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AB136" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AC136" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AD136" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AE136" t="s">
         <v>719</v>
       </c>
       <c r="AF136" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AG136" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AH136" t="s">
         <v>399</v>
@@ -19249,10 +19246,10 @@
         <v>394</v>
       </c>
       <c r="AK136" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AL136" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="137">
@@ -19332,28 +19329,28 @@
         <v>0</v>
       </c>
       <c r="Z137" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AA137" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AB137" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AC137" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AD137" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AE137" t="s">
         <v>720</v>
       </c>
       <c r="AF137" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG137" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AH137" t="s">
         <v>399</v>
@@ -19365,10 +19362,10 @@
         <v>399</v>
       </c>
       <c r="AK137" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AL137" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="138">
@@ -19448,25 +19445,25 @@
         <v>0</v>
       </c>
       <c r="Z138" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA138" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB138" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC138" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AD138" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AE138" t="s">
         <v>0</v>
       </c>
       <c r="AF138" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AG138" t="s">
         <v>0</v>
@@ -19481,10 +19478,10 @@
         <v>399</v>
       </c>
       <c r="AK138" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AL138" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="139">
@@ -19564,25 +19561,25 @@
         <v>0</v>
       </c>
       <c r="Z139" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA139" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB139" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC139" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AD139" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AE139" t="s">
         <v>0</v>
       </c>
       <c r="AF139" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AG139" t="s">
         <v>0</v>
@@ -19594,13 +19591,13 @@
         <v>399</v>
       </c>
       <c r="AJ139" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK139" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AL139" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="140">
@@ -19680,25 +19677,25 @@
         <v>0</v>
       </c>
       <c r="Z140" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA140" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB140" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC140" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AD140" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AE140" t="s">
         <v>0</v>
       </c>
       <c r="AF140" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AG140" t="s">
         <v>0</v>
@@ -19713,10 +19710,10 @@
         <v>398</v>
       </c>
       <c r="AK140" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AL140" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="141">
@@ -19796,25 +19793,25 @@
         <v>0</v>
       </c>
       <c r="Z141" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA141" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB141" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC141" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AD141" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AE141" t="s">
         <v>0</v>
       </c>
       <c r="AF141" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AG141" t="s">
         <v>0</v>
@@ -19829,10 +19826,10 @@
         <v>181</v>
       </c>
       <c r="AK141" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AL141" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="142">
@@ -19912,25 +19909,25 @@
         <v>0</v>
       </c>
       <c r="Z142" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA142" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB142" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC142" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AD142" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AE142" t="s">
         <v>0</v>
       </c>
       <c r="AF142" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AG142" t="s">
         <v>0</v>
@@ -19942,13 +19939,13 @@
         <v>399</v>
       </c>
       <c r="AJ142" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AK142" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AL142" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="143">
@@ -20028,25 +20025,25 @@
         <v>0</v>
       </c>
       <c r="Z143" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA143" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB143" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC143" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AD143" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AE143" t="s">
         <v>0</v>
       </c>
       <c r="AF143" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AG143" t="s">
         <v>0</v>
@@ -20061,10 +20058,10 @@
         <v>401</v>
       </c>
       <c r="AK143" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AL143" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="144">
@@ -20144,25 +20141,25 @@
         <v>0</v>
       </c>
       <c r="Z144" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA144" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB144" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC144" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AD144" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AE144" t="s">
         <v>0</v>
       </c>
       <c r="AF144" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AG144" t="s">
         <v>0</v>
@@ -20177,10 +20174,10 @@
         <v>394</v>
       </c>
       <c r="AK144" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AL144" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="145">
@@ -20260,28 +20257,28 @@
         <v>0</v>
       </c>
       <c r="Z145" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA145" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB145" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC145" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AD145" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AE145" t="s">
         <v>0</v>
       </c>
       <c r="AF145" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AG145" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AH145" t="s">
         <v>399</v>
@@ -20293,10 +20290,10 @@
         <v>400</v>
       </c>
       <c r="AK145" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AL145" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="146">
@@ -20376,28 +20373,28 @@
         <v>0</v>
       </c>
       <c r="Z146" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA146" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB146" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC146" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AD146" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AE146" t="s">
         <v>0</v>
       </c>
       <c r="AF146" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AG146" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AH146" t="s">
         <v>399</v>
@@ -20406,13 +20403,13 @@
         <v>399</v>
       </c>
       <c r="AJ146" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AK146" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AL146" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="147">
@@ -20492,28 +20489,28 @@
         <v>0</v>
       </c>
       <c r="Z147" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA147" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB147" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC147" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AD147" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AE147" t="s">
         <v>0</v>
       </c>
       <c r="AF147" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AG147" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AH147" t="s">
         <v>399</v>
@@ -20525,10 +20522,10 @@
         <v>397</v>
       </c>
       <c r="AK147" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AL147" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="148">
@@ -20608,28 +20605,28 @@
         <v>0</v>
       </c>
       <c r="Z148" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA148" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB148" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC148" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AD148" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AE148" t="s">
         <v>0</v>
       </c>
       <c r="AF148" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AG148" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AH148" t="s">
         <v>399</v>
@@ -20641,10 +20638,10 @@
         <v>197</v>
       </c>
       <c r="AK148" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AL148" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="149">
@@ -20724,25 +20721,25 @@
         <v>0</v>
       </c>
       <c r="Z149" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA149" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB149" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC149" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AD149" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AE149" t="s">
         <v>0</v>
       </c>
       <c r="AF149" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG149" t="s">
         <v>0</v>
@@ -20754,13 +20751,13 @@
         <v>399</v>
       </c>
       <c r="AJ149" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AK149" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AL149" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="150">
@@ -20840,28 +20837,28 @@
         <v>0</v>
       </c>
       <c r="Z150" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA150" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB150" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC150" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AD150" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AE150" t="s">
         <v>0</v>
       </c>
       <c r="AF150" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG150" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AH150" t="s">
         <v>399</v>
@@ -20870,13 +20867,13 @@
         <v>399</v>
       </c>
       <c r="AJ150" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AK150" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AL150" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="151">
@@ -20956,28 +20953,28 @@
         <v>0</v>
       </c>
       <c r="Z151" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA151" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB151" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC151" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AD151" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AE151" t="s">
         <v>0</v>
       </c>
       <c r="AF151" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG151" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AH151" t="s">
         <v>399</v>
@@ -20989,10 +20986,10 @@
         <v>174</v>
       </c>
       <c r="AK151" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AL151" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="152">
@@ -21072,28 +21069,28 @@
         <v>0</v>
       </c>
       <c r="Z152" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA152" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB152" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC152" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AD152" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AE152" t="s">
         <v>0</v>
       </c>
       <c r="AF152" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG152" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AH152" t="s">
         <v>399</v>
@@ -21105,10 +21102,10 @@
         <v>208</v>
       </c>
       <c r="AK152" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AL152" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="153">
@@ -21188,28 +21185,28 @@
         <v>0</v>
       </c>
       <c r="Z153" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA153" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB153" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC153" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AD153" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AE153" t="s">
         <v>0</v>
       </c>
       <c r="AF153" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG153" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AH153" t="s">
         <v>399</v>
@@ -21218,13 +21215,13 @@
         <v>399</v>
       </c>
       <c r="AJ153" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AK153" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AL153" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="154">
@@ -21304,28 +21301,28 @@
         <v>0</v>
       </c>
       <c r="Z154" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA154" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB154" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC154" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AD154" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AE154" t="s">
         <v>0</v>
       </c>
       <c r="AF154" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG154" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AH154" t="s">
         <v>399</v>
@@ -21334,13 +21331,13 @@
         <v>399</v>
       </c>
       <c r="AJ154" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AK154" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AL154" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="155">
@@ -21420,28 +21417,28 @@
         <v>0</v>
       </c>
       <c r="Z155" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA155" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB155" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC155" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AD155" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AE155" t="s">
         <v>0</v>
       </c>
       <c r="AF155" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AG155" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AH155" t="s">
         <v>399</v>
@@ -21453,10 +21450,10 @@
         <v>172</v>
       </c>
       <c r="AK155" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AL155" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="156">
@@ -21530,49 +21527,49 @@
         <v>509</v>
       </c>
       <c r="X156" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="Y156" t="s">
         <v>0</v>
       </c>
       <c r="Z156" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AA156" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB156" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AC156" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AD156" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AE156" t="s">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="AF156" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AG156" t="s">
         <v>0</v>
       </c>
       <c r="AH156" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI156" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ156" t="s">
         <v>399</v>
       </c>
       <c r="AK156" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AL156" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="157">
@@ -21646,49 +21643,49 @@
         <v>509</v>
       </c>
       <c r="X157" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="Y157" t="s">
         <v>0</v>
       </c>
       <c r="Z157" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AA157" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB157" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AC157" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AD157" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AE157" t="s">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="AF157" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG157" t="s">
         <v>0</v>
       </c>
       <c r="AH157" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI157" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ157" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK157" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AL157" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="158">
@@ -21762,31 +21759,31 @@
         <v>0</v>
       </c>
       <c r="X158" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="Y158" t="s">
         <v>0</v>
       </c>
       <c r="Z158" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA158" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB158" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AC158" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AD158" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AE158" t="s">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="AF158" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AG158" t="s">
         <v>0</v>
@@ -21801,10 +21798,10 @@
         <v>399</v>
       </c>
       <c r="AK158" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AL158" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="159">
@@ -21878,34 +21875,34 @@
         <v>0</v>
       </c>
       <c r="X159" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="Y159" t="s">
         <v>0</v>
       </c>
       <c r="Z159" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA159" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB159" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AC159" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AD159" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AE159" t="s">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="AF159" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG159" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AH159" t="s">
         <v>181</v>
@@ -21914,13 +21911,13 @@
         <v>181</v>
       </c>
       <c r="AJ159" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK159" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AL159" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="160">
@@ -21994,34 +21991,34 @@
         <v>0</v>
       </c>
       <c r="X160" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="Y160" t="s">
         <v>0</v>
       </c>
       <c r="Z160" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA160" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB160" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AC160" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AD160" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AE160" t="s">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="AF160" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AG160" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AH160" t="s">
         <v>181</v>
@@ -22033,10 +22030,10 @@
         <v>398</v>
       </c>
       <c r="AK160" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AL160" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="161">
@@ -22110,31 +22107,31 @@
         <v>0</v>
       </c>
       <c r="X161" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="Y161" t="s">
         <v>0</v>
       </c>
       <c r="Z161" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA161" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB161" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AC161" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AD161" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AE161" t="s">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="AF161" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AG161" t="s">
         <v>0</v>
@@ -22149,10 +22146,10 @@
         <v>181</v>
       </c>
       <c r="AK161" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AL161" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="162">
@@ -22226,31 +22223,31 @@
         <v>0</v>
       </c>
       <c r="X162" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="Y162" t="s">
         <v>0</v>
       </c>
       <c r="Z162" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA162" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB162" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AC162" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AD162" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AE162" t="s">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="AF162" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AG162" t="s">
         <v>0</v>
@@ -22262,13 +22259,13 @@
         <v>397</v>
       </c>
       <c r="AJ162" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AK162" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AL162" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="163">
@@ -22342,34 +22339,34 @@
         <v>0</v>
       </c>
       <c r="X163" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="Y163" t="s">
         <v>0</v>
       </c>
       <c r="Z163" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA163" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB163" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AC163" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AD163" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AE163" t="s">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="AF163" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG163" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AH163" t="s">
         <v>181</v>
@@ -22381,10 +22378,10 @@
         <v>401</v>
       </c>
       <c r="AK163" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AL163" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="164">
@@ -22458,31 +22455,31 @@
         <v>509</v>
       </c>
       <c r="X164" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="Y164" t="s">
         <v>0</v>
       </c>
       <c r="Z164" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA164" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB164" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AC164" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AD164" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AE164" t="s">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="AF164" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AG164" t="s">
         <v>0</v>
@@ -22497,10 +22494,10 @@
         <v>394</v>
       </c>
       <c r="AK164" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AL164" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="165">
@@ -22574,49 +22571,49 @@
         <v>0</v>
       </c>
       <c r="X165" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="Y165" t="s">
         <v>0</v>
       </c>
       <c r="Z165" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA165" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB165" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AC165" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AD165" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AE165" t="s">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="AF165" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG165" t="s">
         <v>0</v>
       </c>
       <c r="AH165" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AI165" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AJ165" t="s">
         <v>400</v>
       </c>
       <c r="AK165" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AL165" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="166">
@@ -22690,49 +22687,49 @@
         <v>509</v>
       </c>
       <c r="X166" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="Y166" t="s">
         <v>0</v>
       </c>
       <c r="Z166" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA166" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB166" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AC166" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AD166" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AE166" t="s">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="AF166" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AG166" t="s">
         <v>0</v>
       </c>
       <c r="AH166" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AI166" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AJ166" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AK166" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AL166" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="167">
@@ -22806,34 +22803,34 @@
         <v>509</v>
       </c>
       <c r="X167" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="Y167" t="s">
         <v>0</v>
       </c>
       <c r="Z167" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA167" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB167" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AC167" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AD167" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AE167" t="s">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="AF167" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AG167" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AH167" t="s">
         <v>399</v>
@@ -22845,10 +22842,10 @@
         <v>397</v>
       </c>
       <c r="AK167" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AL167" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="168">
@@ -22922,49 +22919,49 @@
         <v>509</v>
       </c>
       <c r="X168" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="Y168" t="s">
         <v>0</v>
       </c>
       <c r="Z168" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA168" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB168" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AC168" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AD168" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AE168" t="s">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="AF168" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AG168" t="s">
         <v>0</v>
       </c>
       <c r="AH168" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AI168" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AJ168" t="s">
         <v>197</v>
       </c>
       <c r="AK168" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AL168" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="169">
@@ -23038,34 +23035,34 @@
         <v>509</v>
       </c>
       <c r="X169" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="Y169" t="s">
         <v>0</v>
       </c>
       <c r="Z169" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA169" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB169" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AC169" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AD169" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AE169" t="s">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="AF169" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AG169" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AH169" t="s">
         <v>399</v>
@@ -23074,13 +23071,13 @@
         <v>399</v>
       </c>
       <c r="AJ169" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AK169" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AL169" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="170">
@@ -23154,31 +23151,31 @@
         <v>509</v>
       </c>
       <c r="X170" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="Y170" t="s">
         <v>0</v>
       </c>
       <c r="Z170" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA170" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB170" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AC170" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AD170" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AE170" t="s">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="AF170" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AG170" t="s">
         <v>0</v>
@@ -23190,13 +23187,13 @@
         <v>397</v>
       </c>
       <c r="AJ170" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AK170" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AL170" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="171">
@@ -23270,31 +23267,31 @@
         <v>509</v>
       </c>
       <c r="X171" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="Y171" t="s">
         <v>0</v>
       </c>
       <c r="Z171" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA171" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB171" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AC171" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AD171" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AE171" t="s">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="AF171" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AG171" t="s">
         <v>0</v>
@@ -23309,10 +23306,10 @@
         <v>174</v>
       </c>
       <c r="AK171" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AL171" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="172">
@@ -23392,25 +23389,25 @@
         <v>0</v>
       </c>
       <c r="Z172" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA172" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB172" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC172" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AD172" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AE172" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF172" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AG172" t="s">
         <v>0</v>
@@ -23425,10 +23422,10 @@
         <v>399</v>
       </c>
       <c r="AK172" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AL172" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="173">
@@ -23508,43 +23505,43 @@
         <v>0</v>
       </c>
       <c r="Z173" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA173" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB173" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC173" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AD173" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AE173" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF173" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG173" t="s">
         <v>0</v>
       </c>
       <c r="AH173" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI173" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ173" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AK173" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AL173" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="174">
@@ -23624,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="Z174" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA174" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB174" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC174" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AD174" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AE174" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF174" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AG174" t="s">
         <v>0</v>
@@ -23657,10 +23654,10 @@
         <v>398</v>
       </c>
       <c r="AK174" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AL174" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="175">
@@ -23740,25 +23737,25 @@
         <v>0</v>
       </c>
       <c r="Z175" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA175" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB175" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC175" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AD175" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AE175" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF175" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AG175" t="s">
         <v>0</v>
@@ -23773,10 +23770,10 @@
         <v>181</v>
       </c>
       <c r="AK175" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AL175" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="176">
@@ -23856,43 +23853,43 @@
         <v>0</v>
       </c>
       <c r="Z176" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA176" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB176" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC176" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AD176" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AE176" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF176" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AG176" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AH176" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI176" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ176" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AK176" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AL176" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="177">
@@ -23972,28 +23969,28 @@
         <v>0</v>
       </c>
       <c r="Z177" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA177" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB177" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC177" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AD177" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AE177" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF177" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG177" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AH177" t="s">
         <v>399</v>
@@ -24005,10 +24002,10 @@
         <v>401</v>
       </c>
       <c r="AK177" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AL177" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="178">
@@ -24088,28 +24085,28 @@
         <v>0</v>
       </c>
       <c r="Z178" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA178" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB178" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC178" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AD178" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AE178" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF178" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG178" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AH178" t="s">
         <v>399</v>
@@ -24124,7 +24121,7 @@
         <v>212</v>
       </c>
       <c r="AL178" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="179">
@@ -24204,43 +24201,43 @@
         <v>0</v>
       </c>
       <c r="Z179" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA179" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB179" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC179" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AD179" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AE179" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF179" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AG179" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AH179" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI179" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ179" t="s">
         <v>400</v>
       </c>
       <c r="AK179" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AL179" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="180">
@@ -24320,43 +24317,43 @@
         <v>0</v>
       </c>
       <c r="Z180" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA180" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB180" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC180" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AD180" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AE180" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF180" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AG180" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AH180" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI180" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ180" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AK180" t="s">
         <v>407</v>
       </c>
       <c r="AL180" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="181">
@@ -24436,43 +24433,43 @@
         <v>0</v>
       </c>
       <c r="Z181" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA181" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB181" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC181" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AD181" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AE181" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF181" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AG181" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AH181" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI181" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ181" t="s">
         <v>397</v>
       </c>
       <c r="AK181" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AL181" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="182">
@@ -24552,43 +24549,43 @@
         <v>0</v>
       </c>
       <c r="Z182" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA182" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB182" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC182" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AD182" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AE182" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF182" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AG182" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AH182" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI182" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ182" t="s">
         <v>197</v>
       </c>
       <c r="AK182" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AL182" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="183">
@@ -24668,43 +24665,43 @@
         <v>0</v>
       </c>
       <c r="Z183" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA183" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB183" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC183" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AD183" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AE183" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF183" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AG183" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AH183" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI183" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ183" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AK183" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AL183" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="184">
@@ -24784,28 +24781,28 @@
         <v>0</v>
       </c>
       <c r="Z184" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA184" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB184" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC184" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AD184" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AE184" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF184" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG184" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AH184" t="s">
         <v>399</v>
@@ -24814,13 +24811,13 @@
         <v>399</v>
       </c>
       <c r="AJ184" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AK184" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AL184" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="185">
@@ -24900,43 +24897,43 @@
         <v>0</v>
       </c>
       <c r="Z185" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA185" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB185" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC185" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AD185" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AE185" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF185" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG185" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AH185" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI185" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ185" t="s">
         <v>174</v>
       </c>
       <c r="AK185" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AL185" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="186">
@@ -25016,43 +25013,43 @@
         <v>0</v>
       </c>
       <c r="Z186" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA186" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB186" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC186" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AD186" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AE186" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF186" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG186" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AH186" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI186" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ186" t="s">
         <v>208</v>
       </c>
       <c r="AK186" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AL186" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="187">
@@ -25132,43 +25129,43 @@
         <v>0</v>
       </c>
       <c r="Z187" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA187" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB187" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC187" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AD187" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AE187" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF187" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG187" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AH187" t="s">
+        <v>804</v>
+      </c>
+      <c r="AI187" t="s">
+        <v>804</v>
+      </c>
+      <c r="AJ187" t="s">
         <v>805</v>
       </c>
-      <c r="AI187" t="s">
-        <v>805</v>
-      </c>
-      <c r="AJ187" t="s">
-        <v>806</v>
-      </c>
       <c r="AK187" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AL187" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="188">
@@ -25248,43 +25245,43 @@
         <v>0</v>
       </c>
       <c r="Z188" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA188" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB188" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC188" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AD188" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AE188" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF188" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG188" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AH188" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI188" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ188" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AK188" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AL188" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="189">
@@ -25364,43 +25361,43 @@
         <v>0</v>
       </c>
       <c r="Z189" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA189" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB189" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC189" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AD189" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AE189" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF189" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG189" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AH189" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI189" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ189" t="s">
         <v>172</v>
       </c>
       <c r="AK189" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AL189" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="190">
@@ -25480,43 +25477,43 @@
         <v>0</v>
       </c>
       <c r="Z190" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA190" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB190" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC190" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AD190" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AE190" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF190" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG190" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AH190" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI190" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ190" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AK190" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AL190" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="191">
@@ -25596,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Z191" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA191" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB191" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC191" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AD191" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AE191" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF191" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AG191" t="s">
         <v>0</v>
@@ -25629,10 +25626,10 @@
         <v>173</v>
       </c>
       <c r="AK191" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AL191" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="192">
@@ -25712,28 +25709,28 @@
         <v>0</v>
       </c>
       <c r="Z192" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA192" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AB192" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AC192" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AD192" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AE192" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF192" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AG192" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AH192" t="s">
         <v>399</v>
@@ -25745,10 +25742,10 @@
         <v>184</v>
       </c>
       <c r="AK192" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AL192" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
   </sheetData>

--- a/reformatted_data/cell_type-recreated_template.xlsx
+++ b/reformatted_data/cell_type-recreated_template.xlsx
@@ -767,7 +767,7 @@
     <t>influenza-specific IgA secreting plasmablasts</t>
   </si>
   <si>
-    <t>naive B cells (CD19-positive, IgD-negative, CD27-negative) (CL_0000788); memory B cells (CD19+, IgD-, CD27+) (CL_0001053); transitional B cells (CD19+, CD24+, CD38+) (CL_0000818)</t>
+    <t>naive B cells (CD19-positive, IgD-negative, CD27-negative) (CL:0000788); memory B cells (CD19+, IgD-, CD27+) (CL:0001053); transitional B cells (CD19+, CD24+, CD38+) (CL:0000818)</t>
   </si>
   <si>
     <t>plasmablasts (CD19+, CD27+, CD38+)</t>
@@ -1289,7 +1289,7 @@
     <t>MRKAd5/HIV</t>
   </si>
   <si>
-    <t>Modified Vaccinia Ankara (MVA) virus vaccine vector</t>
+    <t>modified Vaccinia Ankara (MVA) virus vaccine vector</t>
   </si>
   <si>
     <t>Menveo; ACWYVax</t>
@@ -1322,7 +1322,7 @@
     <t>FluMist</t>
   </si>
   <si>
-    <t>Inactivated influenza vaccine</t>
+    <t>inactivated influenza vaccine</t>
   </si>
   <si>
     <t>Measles virus vaccine; Diphtheria-Tetanus-Pertussis vaccine</t>
@@ -1535,7 +1535,7 @@
     <t>GLA-AF</t>
   </si>
   <si>
-    <t>AS03 (VO_0001320)</t>
+    <t>AS03 (VO:0001320)</t>
   </si>
   <si>
     <t>AS03 (GSK)</t>
